--- a/Modulo5/src/out/info_estados/New York.xlsx
+++ b/Modulo5/src/out/info_estados/New York.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1874" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2184" uniqueCount="88">
   <si>
     <t>state</t>
   </si>
@@ -40,10 +40,10 @@
     <t>fraction_votes</t>
   </si>
   <si>
-    <t>nueva_columna</t>
+    <t>nuevaColumna</t>
   </si>
   <si>
-    <t>columna_aumentada</t>
+    <t>slogan</t>
   </si>
   <si>
     <t>letra_inicial</t>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>Ted Cruz</t>
+  </si>
+  <si>
+    <t>Un buen partido</t>
+  </si>
+  <si>
+    <t>No pobres en pais rico</t>
   </si>
   <si>
     <t>N</t>
@@ -707,14 +713,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>3</v>
+      <c r="J2" t="s">
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L2">
-        <v>4</v>
+        <v>20423</v>
       </c>
       <c r="M2">
         <v>36001</v>
@@ -751,14 +757,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3">
-        <v>3</v>
+      <c r="J3" t="s">
+        <v>85</v>
       </c>
       <c r="K3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L3">
-        <v>4</v>
+        <v>18451</v>
       </c>
       <c r="M3">
         <v>36001</v>
@@ -795,14 +801,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>3</v>
+      <c r="J4" t="s">
+        <v>86</v>
       </c>
       <c r="K4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>6382</v>
       </c>
       <c r="M4">
         <v>36001</v>
@@ -839,14 +845,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>3</v>
+      <c r="J5" t="s">
+        <v>86</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>4691</v>
       </c>
       <c r="M5">
         <v>36001</v>
@@ -883,14 +889,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="J6" t="s">
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2198</v>
       </c>
       <c r="M6">
         <v>36001</v>
@@ -927,14 +933,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="J7" t="s">
+        <v>85</v>
       </c>
       <c r="K7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L7">
-        <v>4</v>
+        <v>1120</v>
       </c>
       <c r="M7">
         <v>36003</v>
@@ -971,14 +977,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>3</v>
+      <c r="J8" t="s">
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L8">
-        <v>4</v>
+        <v>763</v>
       </c>
       <c r="M8">
         <v>36003</v>
@@ -1015,14 +1021,14 @@
       <c r="I9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>3</v>
+      <c r="J9" t="s">
+        <v>86</v>
       </c>
       <c r="K9" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L9">
-        <v>4</v>
+        <v>2703</v>
       </c>
       <c r="M9">
         <v>36003</v>
@@ -1059,14 +1065,14 @@
       <c r="I10">
         <v>1</v>
       </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="J10" t="s">
+        <v>86</v>
       </c>
       <c r="K10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L10">
-        <v>4</v>
+        <v>1117</v>
       </c>
       <c r="M10">
         <v>36003</v>
@@ -1103,14 +1109,14 @@
       <c r="I11">
         <v>1</v>
       </c>
-      <c r="J11">
-        <v>3</v>
+      <c r="J11" t="s">
+        <v>86</v>
       </c>
       <c r="K11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>1102</v>
       </c>
       <c r="M11">
         <v>36003</v>
@@ -1147,14 +1153,14 @@
       <c r="I12">
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3</v>
+      <c r="J12" t="s">
+        <v>85</v>
       </c>
       <c r="K12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>41115</v>
       </c>
       <c r="M12">
         <v>36005</v>
@@ -1191,14 +1197,14 @@
       <c r="I13">
         <v>1</v>
       </c>
-      <c r="J13">
-        <v>3</v>
+      <c r="J13" t="s">
+        <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L13">
-        <v>4</v>
+        <v>95773</v>
       </c>
       <c r="M13">
         <v>36005</v>
@@ -1235,14 +1241,14 @@
       <c r="I14">
         <v>1</v>
       </c>
-      <c r="J14">
-        <v>3</v>
+      <c r="J14" t="s">
+        <v>86</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L14">
-        <v>4</v>
+        <v>4262</v>
       </c>
       <c r="M14">
         <v>36005</v>
@@ -1279,14 +1285,14 @@
       <c r="I15">
         <v>1</v>
       </c>
-      <c r="J15">
-        <v>3</v>
+      <c r="J15" t="s">
+        <v>86</v>
       </c>
       <c r="K15" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>1034</v>
       </c>
       <c r="M15">
         <v>36005</v>
@@ -1323,14 +1329,14 @@
       <c r="I16">
         <v>1</v>
       </c>
-      <c r="J16">
-        <v>3</v>
+      <c r="J16" t="s">
+        <v>86</v>
       </c>
       <c r="K16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L16">
-        <v>4</v>
+        <v>1023</v>
       </c>
       <c r="M16">
         <v>36005</v>
@@ -1367,14 +1373,14 @@
       <c r="I17">
         <v>1</v>
       </c>
-      <c r="J17">
-        <v>3</v>
+      <c r="J17" t="s">
+        <v>85</v>
       </c>
       <c r="K17" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>116328</v>
       </c>
       <c r="M17">
         <v>36047</v>
@@ -1411,14 +1417,14 @@
       <c r="I18">
         <v>1</v>
       </c>
-      <c r="J18">
-        <v>3</v>
+      <c r="J18" t="s">
+        <v>85</v>
       </c>
       <c r="K18" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>174237</v>
       </c>
       <c r="M18">
         <v>36047</v>
@@ -1455,14 +1461,14 @@
       <c r="I19">
         <v>1</v>
       </c>
-      <c r="J19">
-        <v>3</v>
+      <c r="J19" t="s">
+        <v>86</v>
       </c>
       <c r="K19" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>14985</v>
       </c>
       <c r="M19">
         <v>36047</v>
@@ -1499,14 +1505,14 @@
       <c r="I20">
         <v>1</v>
       </c>
-      <c r="J20">
-        <v>3</v>
+      <c r="J20" t="s">
+        <v>86</v>
       </c>
       <c r="K20" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L20">
-        <v>4</v>
+        <v>3742</v>
       </c>
       <c r="M20">
         <v>36047</v>
@@ -1543,14 +1549,14 @@
       <c r="I21">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>3</v>
+      <c r="J21" t="s">
+        <v>86</v>
       </c>
       <c r="K21" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>4604</v>
       </c>
       <c r="M21">
         <v>36047</v>
@@ -1587,14 +1593,14 @@
       <c r="I22">
         <v>1</v>
       </c>
-      <c r="J22">
-        <v>3</v>
+      <c r="J22" t="s">
+        <v>85</v>
       </c>
       <c r="K22" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L22">
-        <v>4</v>
+        <v>9177</v>
       </c>
       <c r="M22">
         <v>36007</v>
@@ -1631,14 +1637,14 @@
       <c r="I23">
         <v>1</v>
       </c>
-      <c r="J23">
-        <v>3</v>
+      <c r="J23" t="s">
+        <v>85</v>
       </c>
       <c r="K23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L23">
-        <v>4</v>
+        <v>7036</v>
       </c>
       <c r="M23">
         <v>36007</v>
@@ -1675,14 +1681,14 @@
       <c r="I24">
         <v>1</v>
       </c>
-      <c r="J24">
-        <v>3</v>
+      <c r="J24" t="s">
+        <v>86</v>
       </c>
       <c r="K24" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L24">
-        <v>4</v>
+        <v>8410</v>
       </c>
       <c r="M24">
         <v>36007</v>
@@ -1719,14 +1725,14 @@
       <c r="I25">
         <v>1</v>
       </c>
-      <c r="J25">
-        <v>3</v>
+      <c r="J25" t="s">
+        <v>86</v>
       </c>
       <c r="K25" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L25">
-        <v>4</v>
+        <v>4823</v>
       </c>
       <c r="M25">
         <v>36007</v>
@@ -1763,14 +1769,14 @@
       <c r="I26">
         <v>1</v>
       </c>
-      <c r="J26">
-        <v>3</v>
+      <c r="J26" t="s">
+        <v>86</v>
       </c>
       <c r="K26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>3684</v>
       </c>
       <c r="M26">
         <v>36007</v>
@@ -1807,14 +1813,14 @@
       <c r="I27">
         <v>1</v>
       </c>
-      <c r="J27">
-        <v>3</v>
+      <c r="J27" t="s">
+        <v>85</v>
       </c>
       <c r="K27" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L27">
-        <v>4</v>
+        <v>2368</v>
       </c>
       <c r="M27">
         <v>36009</v>
@@ -1851,14 +1857,14 @@
       <c r="I28">
         <v>1</v>
       </c>
-      <c r="J28">
-        <v>3</v>
+      <c r="J28" t="s">
+        <v>85</v>
       </c>
       <c r="K28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>1719</v>
       </c>
       <c r="M28">
         <v>36009</v>
@@ -1895,14 +1901,14 @@
       <c r="I29">
         <v>1</v>
       </c>
-      <c r="J29">
-        <v>3</v>
+      <c r="J29" t="s">
+        <v>86</v>
       </c>
       <c r="K29" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L29">
-        <v>4</v>
+        <v>3504</v>
       </c>
       <c r="M29">
         <v>36009</v>
@@ -1939,14 +1945,14 @@
       <c r="I30">
         <v>1</v>
       </c>
-      <c r="J30">
-        <v>3</v>
+      <c r="J30" t="s">
+        <v>86</v>
       </c>
       <c r="K30" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>1358</v>
       </c>
       <c r="M30">
         <v>36009</v>
@@ -1983,14 +1989,14 @@
       <c r="I31">
         <v>1</v>
       </c>
-      <c r="J31">
-        <v>3</v>
+      <c r="J31" t="s">
+        <v>86</v>
       </c>
       <c r="K31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>1215</v>
       </c>
       <c r="M31">
         <v>36009</v>
@@ -2027,14 +2033,14 @@
       <c r="I32">
         <v>1</v>
       </c>
-      <c r="J32">
-        <v>3</v>
+      <c r="J32" t="s">
+        <v>85</v>
       </c>
       <c r="K32" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L32">
-        <v>4</v>
+        <v>2655</v>
       </c>
       <c r="M32">
         <v>36011</v>
@@ -2071,14 +2077,14 @@
       <c r="I33">
         <v>1</v>
       </c>
-      <c r="J33">
-        <v>3</v>
+      <c r="J33" t="s">
+        <v>85</v>
       </c>
       <c r="K33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L33">
-        <v>4</v>
+        <v>2384</v>
       </c>
       <c r="M33">
         <v>36011</v>
@@ -2115,14 +2121,14 @@
       <c r="I34">
         <v>1</v>
       </c>
-      <c r="J34">
-        <v>3</v>
+      <c r="J34" t="s">
+        <v>86</v>
       </c>
       <c r="K34" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3025</v>
       </c>
       <c r="M34">
         <v>36011</v>
@@ -2159,14 +2165,14 @@
       <c r="I35">
         <v>1</v>
       </c>
-      <c r="J35">
-        <v>3</v>
+      <c r="J35" t="s">
+        <v>86</v>
       </c>
       <c r="K35" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L35">
-        <v>4</v>
+        <v>1943</v>
       </c>
       <c r="M35">
         <v>36011</v>
@@ -2203,14 +2209,14 @@
       <c r="I36">
         <v>1</v>
       </c>
-      <c r="J36">
-        <v>3</v>
+      <c r="J36" t="s">
+        <v>86</v>
       </c>
       <c r="K36" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>1137</v>
       </c>
       <c r="M36">
         <v>36011</v>
@@ -2247,14 +2253,14 @@
       <c r="I37">
         <v>1</v>
       </c>
-      <c r="J37">
-        <v>3</v>
+      <c r="J37" t="s">
+        <v>85</v>
       </c>
       <c r="K37" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L37">
-        <v>4</v>
+        <v>4082</v>
       </c>
       <c r="M37">
         <v>36013</v>
@@ -2291,14 +2297,14 @@
       <c r="I38">
         <v>1</v>
       </c>
-      <c r="J38">
-        <v>3</v>
+      <c r="J38" t="s">
+        <v>85</v>
       </c>
       <c r="K38" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L38">
-        <v>4</v>
+        <v>3484</v>
       </c>
       <c r="M38">
         <v>36013</v>
@@ -2335,14 +2341,14 @@
       <c r="I39">
         <v>1</v>
       </c>
-      <c r="J39">
-        <v>3</v>
+      <c r="J39" t="s">
+        <v>86</v>
       </c>
       <c r="K39" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L39">
-        <v>4</v>
+        <v>4649</v>
       </c>
       <c r="M39">
         <v>36013</v>
@@ -2379,14 +2385,14 @@
       <c r="I40">
         <v>1</v>
       </c>
-      <c r="J40">
-        <v>3</v>
+      <c r="J40" t="s">
+        <v>86</v>
       </c>
       <c r="K40" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L40">
-        <v>4</v>
+        <v>2099</v>
       </c>
       <c r="M40">
         <v>36013</v>
@@ -2423,14 +2429,14 @@
       <c r="I41">
         <v>1</v>
       </c>
-      <c r="J41">
-        <v>3</v>
+      <c r="J41" t="s">
+        <v>86</v>
       </c>
       <c r="K41" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L41">
-        <v>4</v>
+        <v>1839</v>
       </c>
       <c r="M41">
         <v>36013</v>
@@ -2467,14 +2473,14 @@
       <c r="I42">
         <v>1</v>
       </c>
-      <c r="J42">
-        <v>3</v>
+      <c r="J42" t="s">
+        <v>85</v>
       </c>
       <c r="K42" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L42">
-        <v>4</v>
+        <v>2565</v>
       </c>
       <c r="M42">
         <v>36015</v>
@@ -2511,14 +2517,14 @@
       <c r="I43">
         <v>1</v>
       </c>
-      <c r="J43">
-        <v>3</v>
+      <c r="J43" t="s">
+        <v>85</v>
       </c>
       <c r="K43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L43">
-        <v>4</v>
+        <v>2521</v>
       </c>
       <c r="M43">
         <v>36015</v>
@@ -2555,14 +2561,14 @@
       <c r="I44">
         <v>1</v>
       </c>
-      <c r="J44">
-        <v>3</v>
+      <c r="J44" t="s">
+        <v>86</v>
       </c>
       <c r="K44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L44">
-        <v>4</v>
+        <v>3983</v>
       </c>
       <c r="M44">
         <v>36015</v>
@@ -2599,14 +2605,14 @@
       <c r="I45">
         <v>1</v>
       </c>
-      <c r="J45">
-        <v>3</v>
+      <c r="J45" t="s">
+        <v>86</v>
       </c>
       <c r="K45" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L45">
-        <v>4</v>
+        <v>2249</v>
       </c>
       <c r="M45">
         <v>36015</v>
@@ -2643,14 +2649,14 @@
       <c r="I46">
         <v>1</v>
       </c>
-      <c r="J46">
-        <v>3</v>
+      <c r="J46" t="s">
+        <v>86</v>
       </c>
       <c r="K46" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L46">
-        <v>4</v>
+        <v>1704</v>
       </c>
       <c r="M46">
         <v>36015</v>
@@ -2687,14 +2693,14 @@
       <c r="I47">
         <v>1</v>
       </c>
-      <c r="J47">
-        <v>3</v>
+      <c r="J47" t="s">
+        <v>85</v>
       </c>
       <c r="K47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L47">
-        <v>4</v>
+        <v>1495</v>
       </c>
       <c r="M47">
         <v>36017</v>
@@ -2731,14 +2737,14 @@
       <c r="I48">
         <v>1</v>
       </c>
-      <c r="J48">
-        <v>3</v>
+      <c r="J48" t="s">
+        <v>85</v>
       </c>
       <c r="K48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L48">
-        <v>4</v>
+        <v>959</v>
       </c>
       <c r="M48">
         <v>36017</v>
@@ -2775,14 +2781,14 @@
       <c r="I49">
         <v>1</v>
       </c>
-      <c r="J49">
-        <v>3</v>
+      <c r="J49" t="s">
+        <v>86</v>
       </c>
       <c r="K49" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L49">
-        <v>4</v>
+        <v>2385</v>
       </c>
       <c r="M49">
         <v>36017</v>
@@ -2819,14 +2825,14 @@
       <c r="I50">
         <v>1</v>
       </c>
-      <c r="J50">
-        <v>3</v>
+      <c r="J50" t="s">
+        <v>86</v>
       </c>
       <c r="K50" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L50">
-        <v>4</v>
+        <v>1259</v>
       </c>
       <c r="M50">
         <v>36017</v>
@@ -2863,14 +2869,14 @@
       <c r="I51">
         <v>1</v>
       </c>
-      <c r="J51">
-        <v>3</v>
+      <c r="J51" t="s">
+        <v>86</v>
       </c>
       <c r="K51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L51">
-        <v>4</v>
+        <v>1001</v>
       </c>
       <c r="M51">
         <v>36017</v>
@@ -2907,14 +2913,14 @@
       <c r="I52">
         <v>1</v>
       </c>
-      <c r="J52">
-        <v>3</v>
+      <c r="J52" t="s">
+        <v>85</v>
       </c>
       <c r="K52" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L52">
-        <v>4</v>
+        <v>4302</v>
       </c>
       <c r="M52">
         <v>36019</v>
@@ -2951,14 +2957,14 @@
       <c r="I53">
         <v>1</v>
       </c>
-      <c r="J53">
-        <v>3</v>
+      <c r="J53" t="s">
+        <v>85</v>
       </c>
       <c r="K53" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L53">
-        <v>4</v>
+        <v>1551</v>
       </c>
       <c r="M53">
         <v>36019</v>
@@ -2995,14 +3001,14 @@
       <c r="I54">
         <v>1</v>
       </c>
-      <c r="J54">
-        <v>3</v>
+      <c r="J54" t="s">
+        <v>86</v>
       </c>
       <c r="K54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L54">
-        <v>4</v>
+        <v>2365</v>
       </c>
       <c r="M54">
         <v>36019</v>
@@ -3039,14 +3045,14 @@
       <c r="I55">
         <v>1</v>
       </c>
-      <c r="J55">
-        <v>3</v>
+      <c r="J55" t="s">
+        <v>86</v>
       </c>
       <c r="K55" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L55">
-        <v>4</v>
+        <v>1301</v>
       </c>
       <c r="M55">
         <v>36019</v>
@@ -3083,14 +3089,14 @@
       <c r="I56">
         <v>1</v>
       </c>
-      <c r="J56">
-        <v>3</v>
+      <c r="J56" t="s">
+        <v>86</v>
       </c>
       <c r="K56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L56">
-        <v>4</v>
+        <v>675</v>
       </c>
       <c r="M56">
         <v>36019</v>
@@ -3127,14 +3133,14 @@
       <c r="I57">
         <v>1</v>
       </c>
-      <c r="J57">
-        <v>3</v>
+      <c r="J57" t="s">
+        <v>85</v>
       </c>
       <c r="K57" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>3303</v>
       </c>
       <c r="M57">
         <v>36021</v>
@@ -3171,14 +3177,14 @@
       <c r="I58">
         <v>1</v>
       </c>
-      <c r="J58">
-        <v>3</v>
+      <c r="J58" t="s">
+        <v>85</v>
       </c>
       <c r="K58" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L58">
-        <v>4</v>
+        <v>2482</v>
       </c>
       <c r="M58">
         <v>36021</v>
@@ -3215,14 +3221,14 @@
       <c r="I59">
         <v>1</v>
       </c>
-      <c r="J59">
-        <v>3</v>
+      <c r="J59" t="s">
+        <v>86</v>
       </c>
       <c r="K59" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L59">
-        <v>4</v>
+        <v>2523</v>
       </c>
       <c r="M59">
         <v>36021</v>
@@ -3259,14 +3265,14 @@
       <c r="I60">
         <v>1</v>
       </c>
-      <c r="J60">
-        <v>3</v>
+      <c r="J60" t="s">
+        <v>86</v>
       </c>
       <c r="K60" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L60">
-        <v>4</v>
+        <v>1195</v>
       </c>
       <c r="M60">
         <v>36021</v>
@@ -3303,14 +3309,14 @@
       <c r="I61">
         <v>1</v>
       </c>
-      <c r="J61">
-        <v>3</v>
+      <c r="J61" t="s">
+        <v>86</v>
       </c>
       <c r="K61" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L61">
-        <v>4</v>
+        <v>685</v>
       </c>
       <c r="M61">
         <v>36021</v>
@@ -3347,14 +3353,14 @@
       <c r="I62">
         <v>1</v>
       </c>
-      <c r="J62">
-        <v>3</v>
+      <c r="J62" t="s">
+        <v>85</v>
       </c>
       <c r="K62" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L62">
-        <v>4</v>
+        <v>1879</v>
       </c>
       <c r="M62">
         <v>36023</v>
@@ -3391,14 +3397,14 @@
       <c r="I63">
         <v>1</v>
       </c>
-      <c r="J63">
-        <v>3</v>
+      <c r="J63" t="s">
+        <v>85</v>
       </c>
       <c r="K63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L63">
-        <v>4</v>
+        <v>1403</v>
       </c>
       <c r="M63">
         <v>36023</v>
@@ -3435,14 +3441,14 @@
       <c r="I64">
         <v>1</v>
       </c>
-      <c r="J64">
-        <v>3</v>
+      <c r="J64" t="s">
+        <v>86</v>
       </c>
       <c r="K64" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L64">
-        <v>4</v>
+        <v>1628</v>
       </c>
       <c r="M64">
         <v>36023</v>
@@ -3479,14 +3485,14 @@
       <c r="I65">
         <v>1</v>
       </c>
-      <c r="J65">
-        <v>3</v>
+      <c r="J65" t="s">
+        <v>86</v>
       </c>
       <c r="K65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L65">
-        <v>4</v>
+        <v>1203</v>
       </c>
       <c r="M65">
         <v>36023</v>
@@ -3523,14 +3529,14 @@
       <c r="I66">
         <v>1</v>
       </c>
-      <c r="J66">
-        <v>3</v>
+      <c r="J66" t="s">
+        <v>86</v>
       </c>
       <c r="K66" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L66">
-        <v>4</v>
+        <v>839</v>
       </c>
       <c r="M66">
         <v>36023</v>
@@ -3567,14 +3573,14 @@
       <c r="I67">
         <v>1</v>
       </c>
-      <c r="J67">
-        <v>3</v>
+      <c r="J67" t="s">
+        <v>85</v>
       </c>
       <c r="K67" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L67">
-        <v>4</v>
+        <v>1664</v>
       </c>
       <c r="M67">
         <v>36025</v>
@@ -3611,14 +3617,14 @@
       <c r="I68">
         <v>1</v>
       </c>
-      <c r="J68">
-        <v>3</v>
+      <c r="J68" t="s">
+        <v>85</v>
       </c>
       <c r="K68" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L68">
-        <v>4</v>
+        <v>1068</v>
       </c>
       <c r="M68">
         <v>36025</v>
@@ -3655,14 +3661,14 @@
       <c r="I69">
         <v>1</v>
       </c>
-      <c r="J69">
-        <v>3</v>
+      <c r="J69" t="s">
+        <v>86</v>
       </c>
       <c r="K69" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L69">
-        <v>4</v>
+        <v>2684</v>
       </c>
       <c r="M69">
         <v>36025</v>
@@ -3699,14 +3705,14 @@
       <c r="I70">
         <v>1</v>
       </c>
-      <c r="J70">
-        <v>3</v>
+      <c r="J70" t="s">
+        <v>86</v>
       </c>
       <c r="K70" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L70">
-        <v>4</v>
+        <v>1076</v>
       </c>
       <c r="M70">
         <v>36025</v>
@@ -3743,14 +3749,14 @@
       <c r="I71">
         <v>1</v>
       </c>
-      <c r="J71">
-        <v>3</v>
+      <c r="J71" t="s">
+        <v>86</v>
       </c>
       <c r="K71" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L71">
-        <v>4</v>
+        <v>780</v>
       </c>
       <c r="M71">
         <v>36025</v>
@@ -3787,14 +3793,14 @@
       <c r="I72">
         <v>1</v>
       </c>
-      <c r="J72">
-        <v>3</v>
+      <c r="J72" t="s">
+        <v>85</v>
       </c>
       <c r="K72" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L72">
-        <v>4</v>
+        <v>11681</v>
       </c>
       <c r="M72">
         <v>36027</v>
@@ -3831,14 +3837,14 @@
       <c r="I73">
         <v>1</v>
       </c>
-      <c r="J73">
-        <v>3</v>
+      <c r="J73" t="s">
+        <v>85</v>
       </c>
       <c r="K73" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L73">
-        <v>4</v>
+        <v>11006</v>
       </c>
       <c r="M73">
         <v>36027</v>
@@ -3875,14 +3881,14 @@
       <c r="I74">
         <v>1</v>
       </c>
-      <c r="J74">
-        <v>3</v>
+      <c r="J74" t="s">
+        <v>86</v>
       </c>
       <c r="K74" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L74">
-        <v>4</v>
+        <v>12448</v>
       </c>
       <c r="M74">
         <v>36027</v>
@@ -3919,14 +3925,14 @@
       <c r="I75">
         <v>1</v>
       </c>
-      <c r="J75">
-        <v>3</v>
+      <c r="J75" t="s">
+        <v>86</v>
       </c>
       <c r="K75" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L75">
-        <v>4</v>
+        <v>4197</v>
       </c>
       <c r="M75">
         <v>36027</v>
@@ -3963,14 +3969,14 @@
       <c r="I76">
         <v>1</v>
       </c>
-      <c r="J76">
-        <v>3</v>
+      <c r="J76" t="s">
+        <v>86</v>
       </c>
       <c r="K76" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L76">
-        <v>4</v>
+        <v>2682</v>
       </c>
       <c r="M76">
         <v>36027</v>
@@ -4007,14 +4013,14 @@
       <c r="I77">
         <v>1</v>
       </c>
-      <c r="J77">
-        <v>3</v>
+      <c r="J77" t="s">
+        <v>85</v>
       </c>
       <c r="K77" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L77">
-        <v>4</v>
+        <v>49388</v>
       </c>
       <c r="M77">
         <v>36029</v>
@@ -4051,14 +4057,14 @@
       <c r="I78">
         <v>1</v>
       </c>
-      <c r="J78">
-        <v>3</v>
+      <c r="J78" t="s">
+        <v>85</v>
       </c>
       <c r="K78" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L78">
-        <v>4</v>
+        <v>50200</v>
       </c>
       <c r="M78">
         <v>36029</v>
@@ -4095,14 +4101,14 @@
       <c r="I79">
         <v>1</v>
       </c>
-      <c r="J79">
-        <v>3</v>
+      <c r="J79" t="s">
+        <v>86</v>
       </c>
       <c r="K79" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L79">
-        <v>4</v>
+        <v>37608</v>
       </c>
       <c r="M79">
         <v>36029</v>
@@ -4139,14 +4145,14 @@
       <c r="I80">
         <v>1</v>
       </c>
-      <c r="J80">
-        <v>3</v>
+      <c r="J80" t="s">
+        <v>86</v>
       </c>
       <c r="K80" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L80">
-        <v>4</v>
+        <v>12246</v>
       </c>
       <c r="M80">
         <v>36029</v>
@@ -4183,14 +4189,14 @@
       <c r="I81">
         <v>1</v>
       </c>
-      <c r="J81">
-        <v>3</v>
+      <c r="J81" t="s">
+        <v>86</v>
       </c>
       <c r="K81" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L81">
-        <v>4</v>
+        <v>7429</v>
       </c>
       <c r="M81">
         <v>36029</v>
@@ -4227,14 +4233,14 @@
       <c r="I82">
         <v>1</v>
       </c>
-      <c r="J82">
-        <v>3</v>
+      <c r="J82" t="s">
+        <v>85</v>
       </c>
       <c r="K82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L82">
-        <v>4</v>
+        <v>1933</v>
       </c>
       <c r="M82">
         <v>36031</v>
@@ -4271,14 +4277,14 @@
       <c r="I83">
         <v>1</v>
       </c>
-      <c r="J83">
-        <v>3</v>
+      <c r="J83" t="s">
+        <v>85</v>
       </c>
       <c r="K83" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L83">
-        <v>4</v>
+        <v>709</v>
       </c>
       <c r="M83">
         <v>36031</v>
@@ -4315,14 +4321,14 @@
       <c r="I84">
         <v>1</v>
       </c>
-      <c r="J84">
-        <v>3</v>
+      <c r="J84" t="s">
+        <v>86</v>
       </c>
       <c r="K84" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>1797</v>
       </c>
       <c r="M84">
         <v>36031</v>
@@ -4359,14 +4365,14 @@
       <c r="I85">
         <v>1</v>
       </c>
-      <c r="J85">
-        <v>3</v>
+      <c r="J85" t="s">
+        <v>86</v>
       </c>
       <c r="K85" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>1185</v>
       </c>
       <c r="M85">
         <v>36031</v>
@@ -4403,14 +4409,14 @@
       <c r="I86">
         <v>1</v>
       </c>
-      <c r="J86">
-        <v>3</v>
+      <c r="J86" t="s">
+        <v>86</v>
       </c>
       <c r="K86" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>617</v>
       </c>
       <c r="M86">
         <v>36031</v>
@@ -4447,14 +4453,14 @@
       <c r="I87">
         <v>1</v>
       </c>
-      <c r="J87">
-        <v>3</v>
+      <c r="J87" t="s">
+        <v>85</v>
       </c>
       <c r="K87" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L87">
-        <v>4</v>
+        <v>2339</v>
       </c>
       <c r="M87">
         <v>36033</v>
@@ -4491,14 +4497,14 @@
       <c r="I88">
         <v>1</v>
       </c>
-      <c r="J88">
-        <v>3</v>
+      <c r="J88" t="s">
+        <v>85</v>
       </c>
       <c r="K88" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L88">
-        <v>4</v>
+        <v>962</v>
       </c>
       <c r="M88">
         <v>36033</v>
@@ -4535,14 +4541,14 @@
       <c r="I89">
         <v>1</v>
       </c>
-      <c r="J89">
-        <v>3</v>
+      <c r="J89" t="s">
+        <v>86</v>
       </c>
       <c r="K89" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L89">
-        <v>4</v>
+        <v>1375</v>
       </c>
       <c r="M89">
         <v>36033</v>
@@ -4579,14 +4585,14 @@
       <c r="I90">
         <v>1</v>
       </c>
-      <c r="J90">
-        <v>3</v>
+      <c r="J90" t="s">
+        <v>86</v>
       </c>
       <c r="K90" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L90">
-        <v>4</v>
+        <v>701</v>
       </c>
       <c r="M90">
         <v>36033</v>
@@ -4623,14 +4629,14 @@
       <c r="I91">
         <v>1</v>
       </c>
-      <c r="J91">
-        <v>3</v>
+      <c r="J91" t="s">
+        <v>86</v>
       </c>
       <c r="K91" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L91">
-        <v>4</v>
+        <v>391</v>
       </c>
       <c r="M91">
         <v>36033</v>
@@ -4667,14 +4673,14 @@
       <c r="I92">
         <v>1</v>
       </c>
-      <c r="J92">
-        <v>3</v>
+      <c r="J92" t="s">
+        <v>85</v>
       </c>
       <c r="K92" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L92">
-        <v>4</v>
+        <v>1386</v>
       </c>
       <c r="M92">
         <v>36035</v>
@@ -4711,14 +4717,14 @@
       <c r="I93">
         <v>1</v>
       </c>
-      <c r="J93">
-        <v>3</v>
+      <c r="J93" t="s">
+        <v>85</v>
       </c>
       <c r="K93" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L93">
-        <v>4</v>
+        <v>882</v>
       </c>
       <c r="M93">
         <v>36035</v>
@@ -4755,14 +4761,14 @@
       <c r="I94">
         <v>1</v>
       </c>
-      <c r="J94">
-        <v>3</v>
+      <c r="J94" t="s">
+        <v>86</v>
       </c>
       <c r="K94" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L94">
-        <v>4</v>
+        <v>3258</v>
       </c>
       <c r="M94">
         <v>36035</v>
@@ -4799,14 +4805,14 @@
       <c r="I95">
         <v>1</v>
       </c>
-      <c r="J95">
-        <v>3</v>
+      <c r="J95" t="s">
+        <v>86</v>
       </c>
       <c r="K95" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L95">
-        <v>4</v>
+        <v>1430</v>
       </c>
       <c r="M95">
         <v>36035</v>
@@ -4843,14 +4849,14 @@
       <c r="I96">
         <v>1</v>
       </c>
-      <c r="J96">
-        <v>3</v>
+      <c r="J96" t="s">
+        <v>86</v>
       </c>
       <c r="K96" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L96">
-        <v>4</v>
+        <v>931</v>
       </c>
       <c r="M96">
         <v>36035</v>
@@ -4887,14 +4893,14 @@
       <c r="I97">
         <v>1</v>
       </c>
-      <c r="J97">
-        <v>3</v>
+      <c r="J97" t="s">
+        <v>85</v>
       </c>
       <c r="K97" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L97">
-        <v>4</v>
+        <v>1540</v>
       </c>
       <c r="M97">
         <v>36037</v>
@@ -4931,14 +4937,14 @@
       <c r="I98">
         <v>1</v>
       </c>
-      <c r="J98">
-        <v>3</v>
+      <c r="J98" t="s">
+        <v>85</v>
       </c>
       <c r="K98" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L98">
-        <v>4</v>
+        <v>1263</v>
       </c>
       <c r="M98">
         <v>36037</v>
@@ -4975,14 +4981,14 @@
       <c r="I99">
         <v>1</v>
       </c>
-      <c r="J99">
-        <v>3</v>
+      <c r="J99" t="s">
+        <v>86</v>
       </c>
       <c r="K99" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L99">
-        <v>4</v>
+        <v>3674</v>
       </c>
       <c r="M99">
         <v>36037</v>
@@ -5019,14 +5025,14 @@
       <c r="I100">
         <v>1</v>
       </c>
-      <c r="J100">
-        <v>3</v>
+      <c r="J100" t="s">
+        <v>86</v>
       </c>
       <c r="K100" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L100">
-        <v>4</v>
+        <v>1235</v>
       </c>
       <c r="M100">
         <v>36037</v>
@@ -5063,14 +5069,14 @@
       <c r="I101">
         <v>1</v>
       </c>
-      <c r="J101">
-        <v>3</v>
+      <c r="J101" t="s">
+        <v>86</v>
       </c>
       <c r="K101" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L101">
-        <v>4</v>
+        <v>975</v>
       </c>
       <c r="M101">
         <v>36037</v>
@@ -5107,14 +5113,14 @@
       <c r="I102">
         <v>1</v>
       </c>
-      <c r="J102">
-        <v>3</v>
+      <c r="J102" t="s">
+        <v>85</v>
       </c>
       <c r="K102" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L102">
-        <v>4</v>
+        <v>1459</v>
       </c>
       <c r="M102">
         <v>36039</v>
@@ -5151,14 +5157,14 @@
       <c r="I103">
         <v>1</v>
       </c>
-      <c r="J103">
-        <v>3</v>
+      <c r="J103" t="s">
+        <v>85</v>
       </c>
       <c r="K103" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L103">
-        <v>4</v>
+        <v>1063</v>
       </c>
       <c r="M103">
         <v>36039</v>
@@ -5195,14 +5201,14 @@
       <c r="I104">
         <v>1</v>
       </c>
-      <c r="J104">
-        <v>3</v>
+      <c r="J104" t="s">
+        <v>86</v>
       </c>
       <c r="K104" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L104">
-        <v>4</v>
+        <v>2539</v>
       </c>
       <c r="M104">
         <v>36039</v>
@@ -5239,14 +5245,14 @@
       <c r="I105">
         <v>1</v>
       </c>
-      <c r="J105">
-        <v>3</v>
+      <c r="J105" t="s">
+        <v>86</v>
       </c>
       <c r="K105" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L105">
-        <v>4</v>
+        <v>795</v>
       </c>
       <c r="M105">
         <v>36039</v>
@@ -5283,14 +5289,14 @@
       <c r="I106">
         <v>1</v>
       </c>
-      <c r="J106">
-        <v>3</v>
+      <c r="J106" t="s">
+        <v>86</v>
       </c>
       <c r="K106" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>646</v>
       </c>
       <c r="M106">
         <v>36039</v>
@@ -5327,14 +5333,14 @@
       <c r="I107">
         <v>1</v>
       </c>
-      <c r="J107">
-        <v>3</v>
+      <c r="J107" t="s">
+        <v>85</v>
       </c>
       <c r="K107" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="M107">
         <v>36041</v>
@@ -5371,14 +5377,14 @@
       <c r="I108">
         <v>1</v>
       </c>
-      <c r="J108">
-        <v>3</v>
+      <c r="J108" t="s">
+        <v>85</v>
       </c>
       <c r="K108" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L108">
-        <v>4</v>
+        <v>124</v>
       </c>
       <c r="M108">
         <v>36041</v>
@@ -5415,14 +5421,14 @@
       <c r="I109">
         <v>1</v>
       </c>
-      <c r="J109">
-        <v>3</v>
+      <c r="J109" t="s">
+        <v>86</v>
       </c>
       <c r="K109" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L109">
-        <v>4</v>
+        <v>502</v>
       </c>
       <c r="M109">
         <v>36041</v>
@@ -5459,14 +5465,14 @@
       <c r="I110">
         <v>1</v>
       </c>
-      <c r="J110">
-        <v>3</v>
+      <c r="J110" t="s">
+        <v>86</v>
       </c>
       <c r="K110" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L110">
-        <v>4</v>
+        <v>298</v>
       </c>
       <c r="M110">
         <v>36041</v>
@@ -5503,14 +5509,14 @@
       <c r="I111">
         <v>1</v>
       </c>
-      <c r="J111">
-        <v>3</v>
+      <c r="J111" t="s">
+        <v>86</v>
       </c>
       <c r="K111" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="M111">
         <v>36041</v>
@@ -5547,14 +5553,14 @@
       <c r="I112">
         <v>1</v>
       </c>
-      <c r="J112">
-        <v>3</v>
+      <c r="J112" t="s">
+        <v>85</v>
       </c>
       <c r="K112" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L112">
-        <v>4</v>
+        <v>1756</v>
       </c>
       <c r="M112">
         <v>36043</v>
@@ -5591,14 +5597,14 @@
       <c r="I113">
         <v>1</v>
       </c>
-      <c r="J113">
-        <v>3</v>
+      <c r="J113" t="s">
+        <v>85</v>
       </c>
       <c r="K113" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>1378</v>
       </c>
       <c r="M113">
         <v>36043</v>
@@ -5635,14 +5641,14 @@
       <c r="I114">
         <v>1</v>
       </c>
-      <c r="J114">
-        <v>3</v>
+      <c r="J114" t="s">
+        <v>86</v>
       </c>
       <c r="K114" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L114">
-        <v>4</v>
+        <v>3956</v>
       </c>
       <c r="M114">
         <v>36043</v>
@@ -5679,14 +5685,14 @@
       <c r="I115">
         <v>1</v>
       </c>
-      <c r="J115">
-        <v>3</v>
+      <c r="J115" t="s">
+        <v>86</v>
       </c>
       <c r="K115" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L115">
-        <v>4</v>
+        <v>1803</v>
       </c>
       <c r="M115">
         <v>36043</v>
@@ -5723,14 +5729,14 @@
       <c r="I116">
         <v>1</v>
       </c>
-      <c r="J116">
-        <v>3</v>
+      <c r="J116" t="s">
+        <v>86</v>
       </c>
       <c r="K116" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L116">
-        <v>4</v>
+        <v>978</v>
       </c>
       <c r="M116">
         <v>36043</v>
@@ -5767,14 +5773,14 @@
       <c r="I117">
         <v>1</v>
       </c>
-      <c r="J117">
-        <v>3</v>
+      <c r="J117" t="s">
+        <v>85</v>
       </c>
       <c r="K117" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L117">
-        <v>4</v>
+        <v>2467</v>
       </c>
       <c r="M117">
         <v>36045</v>
@@ -5811,14 +5817,14 @@
       <c r="I118">
         <v>1</v>
       </c>
-      <c r="J118">
-        <v>3</v>
+      <c r="J118" t="s">
+        <v>85</v>
       </c>
       <c r="K118" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L118">
-        <v>4</v>
+        <v>2380</v>
       </c>
       <c r="M118">
         <v>36045</v>
@@ -5855,14 +5861,14 @@
       <c r="I119">
         <v>1</v>
       </c>
-      <c r="J119">
-        <v>3</v>
+      <c r="J119" t="s">
+        <v>86</v>
       </c>
       <c r="K119" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L119">
-        <v>4</v>
+        <v>4940</v>
       </c>
       <c r="M119">
         <v>36045</v>
@@ -5899,14 +5905,14 @@
       <c r="I120">
         <v>1</v>
       </c>
-      <c r="J120">
-        <v>3</v>
+      <c r="J120" t="s">
+        <v>86</v>
       </c>
       <c r="K120" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L120">
-        <v>4</v>
+        <v>2677</v>
       </c>
       <c r="M120">
         <v>36045</v>
@@ -5943,14 +5949,14 @@
       <c r="I121">
         <v>1</v>
       </c>
-      <c r="J121">
-        <v>3</v>
+      <c r="J121" t="s">
+        <v>86</v>
       </c>
       <c r="K121" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L121">
-        <v>4</v>
+        <v>1099</v>
       </c>
       <c r="M121">
         <v>36045</v>
@@ -5987,14 +5993,14 @@
       <c r="I122">
         <v>1</v>
       </c>
-      <c r="J122">
-        <v>3</v>
+      <c r="J122" t="s">
+        <v>85</v>
       </c>
       <c r="K122" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L122">
-        <v>4</v>
+        <v>649</v>
       </c>
       <c r="M122">
         <v>36049</v>
@@ -6031,14 +6037,14 @@
       <c r="I123">
         <v>1</v>
       </c>
-      <c r="J123">
-        <v>3</v>
+      <c r="J123" t="s">
+        <v>85</v>
       </c>
       <c r="K123" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>450</v>
       </c>
       <c r="M123">
         <v>36049</v>
@@ -6075,14 +6081,14 @@
       <c r="I124">
         <v>1</v>
       </c>
-      <c r="J124">
-        <v>3</v>
+      <c r="J124" t="s">
+        <v>86</v>
       </c>
       <c r="K124" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L124">
-        <v>4</v>
+        <v>1560</v>
       </c>
       <c r="M124">
         <v>36049</v>
@@ -6119,14 +6125,14 @@
       <c r="I125">
         <v>1</v>
       </c>
-      <c r="J125">
-        <v>3</v>
+      <c r="J125" t="s">
+        <v>86</v>
       </c>
       <c r="K125" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L125">
-        <v>4</v>
+        <v>852</v>
       </c>
       <c r="M125">
         <v>36049</v>
@@ -6163,14 +6169,14 @@
       <c r="I126">
         <v>1</v>
       </c>
-      <c r="J126">
-        <v>3</v>
+      <c r="J126" t="s">
+        <v>86</v>
       </c>
       <c r="K126" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L126">
-        <v>4</v>
+        <v>430</v>
       </c>
       <c r="M126">
         <v>36049</v>
@@ -6207,14 +6213,14 @@
       <c r="I127">
         <v>1</v>
       </c>
-      <c r="J127">
-        <v>3</v>
+      <c r="J127" t="s">
+        <v>85</v>
       </c>
       <c r="K127" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L127">
-        <v>4</v>
+        <v>2411</v>
       </c>
       <c r="M127">
         <v>36051</v>
@@ -6251,14 +6257,14 @@
       <c r="I128">
         <v>1</v>
       </c>
-      <c r="J128">
-        <v>3</v>
+      <c r="J128" t="s">
+        <v>85</v>
       </c>
       <c r="K128" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L128">
-        <v>4</v>
+        <v>1612</v>
       </c>
       <c r="M128">
         <v>36051</v>
@@ -6295,14 +6301,14 @@
       <c r="I129">
         <v>1</v>
       </c>
-      <c r="J129">
-        <v>3</v>
+      <c r="J129" t="s">
+        <v>86</v>
       </c>
       <c r="K129" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L129">
-        <v>4</v>
+        <v>3745</v>
       </c>
       <c r="M129">
         <v>36051</v>
@@ -6339,14 +6345,14 @@
       <c r="I130">
         <v>1</v>
       </c>
-      <c r="J130">
-        <v>3</v>
+      <c r="J130" t="s">
+        <v>86</v>
       </c>
       <c r="K130" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L130">
-        <v>4</v>
+        <v>1604</v>
       </c>
       <c r="M130">
         <v>36051</v>
@@ -6383,14 +6389,14 @@
       <c r="I131">
         <v>1</v>
       </c>
-      <c r="J131">
-        <v>3</v>
+      <c r="J131" t="s">
+        <v>86</v>
       </c>
       <c r="K131" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L131">
-        <v>4</v>
+        <v>1248</v>
       </c>
       <c r="M131">
         <v>36051</v>
@@ -6427,14 +6433,14 @@
       <c r="I132">
         <v>1</v>
       </c>
-      <c r="J132">
-        <v>3</v>
+      <c r="J132" t="s">
+        <v>85</v>
       </c>
       <c r="K132" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L132">
-        <v>4</v>
+        <v>2347</v>
       </c>
       <c r="M132">
         <v>36053</v>
@@ -6471,14 +6477,14 @@
       <c r="I133">
         <v>1</v>
       </c>
-      <c r="J133">
-        <v>3</v>
+      <c r="J133" t="s">
+        <v>85</v>
       </c>
       <c r="K133" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L133">
-        <v>4</v>
+        <v>1881</v>
       </c>
       <c r="M133">
         <v>36053</v>
@@ -6515,14 +6521,14 @@
       <c r="I134">
         <v>1</v>
       </c>
-      <c r="J134">
-        <v>3</v>
+      <c r="J134" t="s">
+        <v>86</v>
       </c>
       <c r="K134" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>2969</v>
       </c>
       <c r="M134">
         <v>36053</v>
@@ -6559,14 +6565,14 @@
       <c r="I135">
         <v>1</v>
       </c>
-      <c r="J135">
-        <v>3</v>
+      <c r="J135" t="s">
+        <v>86</v>
       </c>
       <c r="K135" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L135">
-        <v>4</v>
+        <v>2103</v>
       </c>
       <c r="M135">
         <v>36053</v>
@@ -6603,14 +6609,14 @@
       <c r="I136">
         <v>1</v>
       </c>
-      <c r="J136">
-        <v>3</v>
+      <c r="J136" t="s">
+        <v>86</v>
       </c>
       <c r="K136" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L136">
-        <v>4</v>
+        <v>1246</v>
       </c>
       <c r="M136">
         <v>36053</v>
@@ -6647,14 +6653,14 @@
       <c r="I137">
         <v>1</v>
       </c>
-      <c r="J137">
-        <v>3</v>
+      <c r="J137" t="s">
+        <v>85</v>
       </c>
       <c r="K137" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L137">
-        <v>4</v>
+        <v>90228</v>
       </c>
       <c r="M137">
         <v>36061</v>
@@ -6691,14 +6697,14 @@
       <c r="I138">
         <v>1</v>
       </c>
-      <c r="J138">
-        <v>3</v>
+      <c r="J138" t="s">
+        <v>85</v>
       </c>
       <c r="K138" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L138">
-        <v>4</v>
+        <v>177497</v>
       </c>
       <c r="M138">
         <v>36061</v>
@@ -6735,14 +6741,14 @@
       <c r="I139">
         <v>1</v>
       </c>
-      <c r="J139">
-        <v>3</v>
+      <c r="J139" t="s">
+        <v>86</v>
       </c>
       <c r="K139" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L139">
-        <v>4</v>
+        <v>10394</v>
       </c>
       <c r="M139">
         <v>36061</v>
@@ -6779,14 +6785,14 @@
       <c r="I140">
         <v>1</v>
       </c>
-      <c r="J140">
-        <v>3</v>
+      <c r="J140" t="s">
+        <v>86</v>
       </c>
       <c r="K140" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L140">
-        <v>4</v>
+        <v>11252</v>
       </c>
       <c r="M140">
         <v>36061</v>
@@ -6823,14 +6829,14 @@
       <c r="I141">
         <v>1</v>
       </c>
-      <c r="J141">
-        <v>3</v>
+      <c r="J141" t="s">
+        <v>86</v>
       </c>
       <c r="K141" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L141">
-        <v>4</v>
+        <v>3244</v>
       </c>
       <c r="M141">
         <v>36061</v>
@@ -6867,14 +6873,14 @@
       <c r="I142">
         <v>1</v>
       </c>
-      <c r="J142">
-        <v>3</v>
+      <c r="J142" t="s">
+        <v>85</v>
       </c>
       <c r="K142" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L142">
-        <v>4</v>
+        <v>34718</v>
       </c>
       <c r="M142">
         <v>36055</v>
@@ -6911,14 +6917,14 @@
       <c r="I143">
         <v>1</v>
       </c>
-      <c r="J143">
-        <v>3</v>
+      <c r="J143" t="s">
+        <v>85</v>
       </c>
       <c r="K143" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L143">
-        <v>4</v>
+        <v>37310</v>
       </c>
       <c r="M143">
         <v>36055</v>
@@ -6955,14 +6961,14 @@
       <c r="I144">
         <v>1</v>
       </c>
-      <c r="J144">
-        <v>3</v>
+      <c r="J144" t="s">
+        <v>86</v>
       </c>
       <c r="K144" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L144">
-        <v>4</v>
+        <v>27056</v>
       </c>
       <c r="M144">
         <v>36055</v>
@@ -6999,14 +7005,14 @@
       <c r="I145">
         <v>1</v>
       </c>
-      <c r="J145">
-        <v>3</v>
+      <c r="J145" t="s">
+        <v>86</v>
       </c>
       <c r="K145" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L145">
-        <v>4</v>
+        <v>16247</v>
       </c>
       <c r="M145">
         <v>36055</v>
@@ -7043,14 +7049,14 @@
       <c r="I146">
         <v>1</v>
       </c>
-      <c r="J146">
-        <v>3</v>
+      <c r="J146" t="s">
+        <v>86</v>
       </c>
       <c r="K146" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L146">
-        <v>4</v>
+        <v>9083</v>
       </c>
       <c r="M146">
         <v>36055</v>
@@ -7087,14 +7093,14 @@
       <c r="I147">
         <v>1</v>
       </c>
-      <c r="J147">
-        <v>3</v>
+      <c r="J147" t="s">
+        <v>85</v>
       </c>
       <c r="K147" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L147">
-        <v>4</v>
+        <v>1631</v>
       </c>
       <c r="M147">
         <v>36057</v>
@@ -7131,14 +7137,14 @@
       <c r="I148">
         <v>1</v>
       </c>
-      <c r="J148">
-        <v>3</v>
+      <c r="J148" t="s">
+        <v>85</v>
       </c>
       <c r="K148" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L148">
-        <v>4</v>
+        <v>1186</v>
       </c>
       <c r="M148">
         <v>36057</v>
@@ -7175,14 +7181,14 @@
       <c r="I149">
         <v>1</v>
       </c>
-      <c r="J149">
-        <v>3</v>
+      <c r="J149" t="s">
+        <v>86</v>
       </c>
       <c r="K149" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L149">
-        <v>4</v>
+        <v>1958</v>
       </c>
       <c r="M149">
         <v>36057</v>
@@ -7219,14 +7225,14 @@
       <c r="I150">
         <v>1</v>
       </c>
-      <c r="J150">
-        <v>3</v>
+      <c r="J150" t="s">
+        <v>86</v>
       </c>
       <c r="K150" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L150">
-        <v>4</v>
+        <v>815</v>
       </c>
       <c r="M150">
         <v>36057</v>
@@ -7263,14 +7269,14 @@
       <c r="I151">
         <v>1</v>
       </c>
-      <c r="J151">
-        <v>3</v>
+      <c r="J151" t="s">
+        <v>86</v>
       </c>
       <c r="K151" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L151">
-        <v>4</v>
+        <v>735</v>
       </c>
       <c r="M151">
         <v>36057</v>
@@ -7307,14 +7313,14 @@
       <c r="I152">
         <v>1</v>
       </c>
-      <c r="J152">
-        <v>3</v>
+      <c r="J152" t="s">
+        <v>85</v>
       </c>
       <c r="K152" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L152">
-        <v>4</v>
+        <v>42302</v>
       </c>
       <c r="M152">
         <v>36059</v>
@@ -7351,14 +7357,14 @@
       <c r="I153">
         <v>1</v>
       </c>
-      <c r="J153">
-        <v>3</v>
+      <c r="J153" t="s">
+        <v>85</v>
       </c>
       <c r="K153" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L153">
-        <v>4</v>
+        <v>70948</v>
       </c>
       <c r="M153">
         <v>36059</v>
@@ -7395,14 +7401,14 @@
       <c r="I154">
         <v>1</v>
       </c>
-      <c r="J154">
-        <v>3</v>
+      <c r="J154" t="s">
+        <v>86</v>
       </c>
       <c r="K154" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L154">
-        <v>4</v>
+        <v>66990</v>
       </c>
       <c r="M154">
         <v>36059</v>
@@ -7439,14 +7445,14 @@
       <c r="I155">
         <v>1</v>
       </c>
-      <c r="J155">
-        <v>3</v>
+      <c r="J155" t="s">
+        <v>86</v>
       </c>
       <c r="K155" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L155">
-        <v>4</v>
+        <v>21683</v>
       </c>
       <c r="M155">
         <v>36059</v>
@@ -7483,14 +7489,14 @@
       <c r="I156">
         <v>1</v>
       </c>
-      <c r="J156">
-        <v>3</v>
+      <c r="J156" t="s">
+        <v>86</v>
       </c>
       <c r="K156" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L156">
-        <v>4</v>
+        <v>9326</v>
       </c>
       <c r="M156">
         <v>36059</v>
@@ -7527,14 +7533,14 @@
       <c r="I157">
         <v>1</v>
       </c>
-      <c r="J157">
-        <v>3</v>
+      <c r="J157" t="s">
+        <v>85</v>
       </c>
       <c r="K157" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L157">
-        <v>4</v>
+        <v>8917</v>
       </c>
       <c r="M157">
         <v>36063</v>
@@ -7571,14 +7577,14 @@
       <c r="I158">
         <v>1</v>
       </c>
-      <c r="J158">
-        <v>3</v>
+      <c r="J158" t="s">
+        <v>85</v>
       </c>
       <c r="K158" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L158">
-        <v>4</v>
+        <v>7695</v>
       </c>
       <c r="M158">
         <v>36063</v>
@@ -7615,14 +7621,14 @@
       <c r="I159">
         <v>1</v>
       </c>
-      <c r="J159">
-        <v>3</v>
+      <c r="J159" t="s">
+        <v>86</v>
       </c>
       <c r="K159" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L159">
-        <v>4</v>
+        <v>10941</v>
       </c>
       <c r="M159">
         <v>36063</v>
@@ -7659,14 +7665,14 @@
       <c r="I160">
         <v>1</v>
       </c>
-      <c r="J160">
-        <v>3</v>
+      <c r="J160" t="s">
+        <v>86</v>
       </c>
       <c r="K160" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L160">
-        <v>4</v>
+        <v>3078</v>
       </c>
       <c r="M160">
         <v>36063</v>
@@ -7703,14 +7709,14 @@
       <c r="I161">
         <v>1</v>
       </c>
-      <c r="J161">
-        <v>3</v>
+      <c r="J161" t="s">
+        <v>86</v>
       </c>
       <c r="K161" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L161">
-        <v>4</v>
+        <v>2198</v>
       </c>
       <c r="M161">
         <v>36063</v>
@@ -7747,14 +7753,14 @@
       <c r="I162">
         <v>1</v>
       </c>
-      <c r="J162">
-        <v>3</v>
+      <c r="J162" t="s">
+        <v>85</v>
       </c>
       <c r="K162" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L162">
-        <v>4</v>
+        <v>7273</v>
       </c>
       <c r="M162">
         <v>36065</v>
@@ -7791,14 +7797,14 @@
       <c r="I163">
         <v>1</v>
       </c>
-      <c r="J163">
-        <v>3</v>
+      <c r="J163" t="s">
+        <v>85</v>
       </c>
       <c r="K163" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L163">
-        <v>4</v>
+        <v>6055</v>
       </c>
       <c r="M163">
         <v>36065</v>
@@ -7835,14 +7841,14 @@
       <c r="I164">
         <v>1</v>
       </c>
-      <c r="J164">
-        <v>3</v>
+      <c r="J164" t="s">
+        <v>86</v>
       </c>
       <c r="K164" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L164">
-        <v>4</v>
+        <v>10833</v>
       </c>
       <c r="M164">
         <v>36065</v>
@@ -7879,14 +7885,14 @@
       <c r="I165">
         <v>1</v>
       </c>
-      <c r="J165">
-        <v>3</v>
+      <c r="J165" t="s">
+        <v>86</v>
       </c>
       <c r="K165" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L165">
-        <v>4</v>
+        <v>5109</v>
       </c>
       <c r="M165">
         <v>36065</v>
@@ -7923,14 +7929,14 @@
       <c r="I166">
         <v>1</v>
       </c>
-      <c r="J166">
-        <v>3</v>
+      <c r="J166" t="s">
+        <v>86</v>
       </c>
       <c r="K166" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L166">
-        <v>4</v>
+        <v>3110</v>
       </c>
       <c r="M166">
         <v>36065</v>
@@ -7967,14 +7973,14 @@
       <c r="I167">
         <v>1</v>
       </c>
-      <c r="J167">
-        <v>3</v>
+      <c r="J167" t="s">
+        <v>85</v>
       </c>
       <c r="K167" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L167">
-        <v>4</v>
+        <v>18058</v>
       </c>
       <c r="M167">
         <v>36067</v>
@@ -8011,14 +8017,14 @@
       <c r="I168">
         <v>1</v>
       </c>
-      <c r="J168">
-        <v>3</v>
+      <c r="J168" t="s">
+        <v>85</v>
       </c>
       <c r="K168" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L168">
-        <v>4</v>
+        <v>20398</v>
       </c>
       <c r="M168">
         <v>36067</v>
@@ -8055,14 +8061,14 @@
       <c r="I169">
         <v>1</v>
       </c>
-      <c r="J169">
-        <v>3</v>
+      <c r="J169" t="s">
+        <v>86</v>
       </c>
       <c r="K169" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L169">
-        <v>4</v>
+        <v>14373</v>
       </c>
       <c r="M169">
         <v>36067</v>
@@ -8099,14 +8105,14 @@
       <c r="I170">
         <v>1</v>
       </c>
-      <c r="J170">
-        <v>3</v>
+      <c r="J170" t="s">
+        <v>86</v>
       </c>
       <c r="K170" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L170">
-        <v>4</v>
+        <v>11487</v>
       </c>
       <c r="M170">
         <v>36067</v>
@@ -8143,14 +8149,14 @@
       <c r="I171">
         <v>1</v>
       </c>
-      <c r="J171">
-        <v>3</v>
+      <c r="J171" t="s">
+        <v>86</v>
       </c>
       <c r="K171" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L171">
-        <v>4</v>
+        <v>5670</v>
       </c>
       <c r="M171">
         <v>36067</v>
@@ -8187,14 +8193,14 @@
       <c r="I172">
         <v>1</v>
       </c>
-      <c r="J172">
-        <v>3</v>
+      <c r="J172" t="s">
+        <v>85</v>
       </c>
       <c r="K172" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L172">
-        <v>4</v>
+        <v>3362</v>
       </c>
       <c r="M172">
         <v>36069</v>
@@ -8231,14 +8237,14 @@
       <c r="I173">
         <v>1</v>
       </c>
-      <c r="J173">
-        <v>3</v>
+      <c r="J173" t="s">
+        <v>85</v>
       </c>
       <c r="K173" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L173">
-        <v>4</v>
+        <v>2885</v>
       </c>
       <c r="M173">
         <v>36069</v>
@@ -8275,14 +8281,14 @@
       <c r="I174">
         <v>1</v>
       </c>
-      <c r="J174">
-        <v>3</v>
+      <c r="J174" t="s">
+        <v>86</v>
       </c>
       <c r="K174" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L174">
-        <v>4</v>
+        <v>4123</v>
       </c>
       <c r="M174">
         <v>36069</v>
@@ -8319,14 +8325,14 @@
       <c r="I175">
         <v>1</v>
       </c>
-      <c r="J175">
-        <v>3</v>
+      <c r="J175" t="s">
+        <v>86</v>
       </c>
       <c r="K175" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L175">
-        <v>4</v>
+        <v>2431</v>
       </c>
       <c r="M175">
         <v>36069</v>
@@ -8363,14 +8369,14 @@
       <c r="I176">
         <v>1</v>
       </c>
-      <c r="J176">
-        <v>3</v>
+      <c r="J176" t="s">
+        <v>86</v>
       </c>
       <c r="K176" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L176">
-        <v>4</v>
+        <v>1501</v>
       </c>
       <c r="M176">
         <v>36069</v>
@@ -8407,14 +8413,14 @@
       <c r="I177">
         <v>1</v>
       </c>
-      <c r="J177">
-        <v>3</v>
+      <c r="J177" t="s">
+        <v>85</v>
       </c>
       <c r="K177" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L177">
-        <v>4</v>
+        <v>11537</v>
       </c>
       <c r="M177">
         <v>36071</v>
@@ -8451,14 +8457,14 @@
       <c r="I178">
         <v>1</v>
       </c>
-      <c r="J178">
-        <v>3</v>
+      <c r="J178" t="s">
+        <v>85</v>
       </c>
       <c r="K178" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L178">
-        <v>4</v>
+        <v>12240</v>
       </c>
       <c r="M178">
         <v>36071</v>
@@ -8495,14 +8501,14 @@
       <c r="I179">
         <v>1</v>
       </c>
-      <c r="J179">
-        <v>3</v>
+      <c r="J179" t="s">
+        <v>86</v>
       </c>
       <c r="K179" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L179">
-        <v>4</v>
+        <v>16131</v>
       </c>
       <c r="M179">
         <v>36071</v>
@@ -8539,14 +8545,14 @@
       <c r="I180">
         <v>1</v>
       </c>
-      <c r="J180">
-        <v>3</v>
+      <c r="J180" t="s">
+        <v>86</v>
       </c>
       <c r="K180" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L180">
-        <v>4</v>
+        <v>4136</v>
       </c>
       <c r="M180">
         <v>36071</v>
@@ -8583,14 +8589,14 @@
       <c r="I181">
         <v>1</v>
       </c>
-      <c r="J181">
-        <v>3</v>
+      <c r="J181" t="s">
+        <v>86</v>
       </c>
       <c r="K181" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L181">
-        <v>4</v>
+        <v>2943</v>
       </c>
       <c r="M181">
         <v>36071</v>
@@ -8627,14 +8633,14 @@
       <c r="I182">
         <v>1</v>
       </c>
-      <c r="J182">
-        <v>3</v>
+      <c r="J182" t="s">
+        <v>85</v>
       </c>
       <c r="K182" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L182">
-        <v>4</v>
+        <v>878</v>
       </c>
       <c r="M182">
         <v>36073</v>
@@ -8671,14 +8677,14 @@
       <c r="I183">
         <v>1</v>
       </c>
-      <c r="J183">
-        <v>3</v>
+      <c r="J183" t="s">
+        <v>85</v>
       </c>
       <c r="K183" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L183">
-        <v>4</v>
+        <v>651</v>
       </c>
       <c r="M183">
         <v>36073</v>
@@ -8715,14 +8721,14 @@
       <c r="I184">
         <v>1</v>
       </c>
-      <c r="J184">
-        <v>3</v>
+      <c r="J184" t="s">
+        <v>86</v>
       </c>
       <c r="K184" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L184">
-        <v>4</v>
+        <v>2533</v>
       </c>
       <c r="M184">
         <v>36073</v>
@@ -8759,14 +8765,14 @@
       <c r="I185">
         <v>1</v>
       </c>
-      <c r="J185">
-        <v>3</v>
+      <c r="J185" t="s">
+        <v>86</v>
       </c>
       <c r="K185" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L185">
-        <v>4</v>
+        <v>758</v>
       </c>
       <c r="M185">
         <v>36073</v>
@@ -8803,14 +8809,14 @@
       <c r="I186">
         <v>1</v>
       </c>
-      <c r="J186">
-        <v>3</v>
+      <c r="J186" t="s">
+        <v>86</v>
       </c>
       <c r="K186" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L186">
-        <v>4</v>
+        <v>655</v>
       </c>
       <c r="M186">
         <v>36073</v>
@@ -8847,14 +8853,14 @@
       <c r="I187">
         <v>1</v>
       </c>
-      <c r="J187">
-        <v>3</v>
+      <c r="J187" t="s">
+        <v>85</v>
       </c>
       <c r="K187" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L187">
-        <v>4</v>
+        <v>3067</v>
       </c>
       <c r="M187">
         <v>36075</v>
@@ -8891,14 +8897,14 @@
       <c r="I188">
         <v>1</v>
       </c>
-      <c r="J188">
-        <v>3</v>
+      <c r="J188" t="s">
+        <v>85</v>
       </c>
       <c r="K188" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L188">
-        <v>4</v>
+        <v>2425</v>
       </c>
       <c r="M188">
         <v>36075</v>
@@ -8935,14 +8941,14 @@
       <c r="I189">
         <v>1</v>
       </c>
-      <c r="J189">
-        <v>3</v>
+      <c r="J189" t="s">
+        <v>86</v>
       </c>
       <c r="K189" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L189">
-        <v>4</v>
+        <v>6152</v>
       </c>
       <c r="M189">
         <v>36075</v>
@@ -8979,14 +8985,14 @@
       <c r="I190">
         <v>1</v>
       </c>
-      <c r="J190">
-        <v>3</v>
+      <c r="J190" t="s">
+        <v>86</v>
       </c>
       <c r="K190" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L190">
-        <v>4</v>
+        <v>3164</v>
       </c>
       <c r="M190">
         <v>36075</v>
@@ -9023,14 +9029,14 @@
       <c r="I191">
         <v>1</v>
       </c>
-      <c r="J191">
-        <v>3</v>
+      <c r="J191" t="s">
+        <v>86</v>
       </c>
       <c r="K191" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L191">
-        <v>4</v>
+        <v>1908</v>
       </c>
       <c r="M191">
         <v>36075</v>
@@ -9067,14 +9073,14 @@
       <c r="I192">
         <v>1</v>
       </c>
-      <c r="J192">
-        <v>3</v>
+      <c r="J192" t="s">
+        <v>85</v>
       </c>
       <c r="K192" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L192">
-        <v>4</v>
+        <v>2624</v>
       </c>
       <c r="M192">
         <v>36077</v>
@@ -9111,14 +9117,14 @@
       <c r="I193">
         <v>1</v>
       </c>
-      <c r="J193">
-        <v>3</v>
+      <c r="J193" t="s">
+        <v>85</v>
       </c>
       <c r="K193" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L193">
-        <v>4</v>
+        <v>1818</v>
       </c>
       <c r="M193">
         <v>36077</v>
@@ -9155,14 +9161,14 @@
       <c r="I194">
         <v>1</v>
       </c>
-      <c r="J194">
-        <v>3</v>
+      <c r="J194" t="s">
+        <v>86</v>
       </c>
       <c r="K194" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L194">
-        <v>4</v>
+        <v>2574</v>
       </c>
       <c r="M194">
         <v>36077</v>
@@ -9199,14 +9205,14 @@
       <c r="I195">
         <v>1</v>
       </c>
-      <c r="J195">
-        <v>3</v>
+      <c r="J195" t="s">
+        <v>86</v>
       </c>
       <c r="K195" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L195">
-        <v>4</v>
+        <v>1423</v>
       </c>
       <c r="M195">
         <v>36077</v>
@@ -9243,14 +9249,14 @@
       <c r="I196">
         <v>1</v>
       </c>
-      <c r="J196">
-        <v>3</v>
+      <c r="J196" t="s">
+        <v>86</v>
       </c>
       <c r="K196" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L196">
-        <v>4</v>
+        <v>955</v>
       </c>
       <c r="M196">
         <v>36077</v>
@@ -9287,14 +9293,14 @@
       <c r="I197">
         <v>1</v>
       </c>
-      <c r="J197">
-        <v>3</v>
+      <c r="J197" t="s">
+        <v>85</v>
       </c>
       <c r="K197" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L197">
-        <v>4</v>
+        <v>3574</v>
       </c>
       <c r="M197">
         <v>36079</v>
@@ -9331,14 +9337,14 @@
       <c r="I198">
         <v>1</v>
       </c>
-      <c r="J198">
-        <v>3</v>
+      <c r="J198" t="s">
+        <v>85</v>
       </c>
       <c r="K198" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L198">
-        <v>4</v>
+        <v>3478</v>
       </c>
       <c r="M198">
         <v>36079</v>
@@ -9375,14 +9381,14 @@
       <c r="I199">
         <v>1</v>
       </c>
-      <c r="J199">
-        <v>3</v>
+      <c r="J199" t="s">
+        <v>86</v>
       </c>
       <c r="K199" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L199">
-        <v>4</v>
+        <v>5758</v>
       </c>
       <c r="M199">
         <v>36079</v>
@@ -9419,14 +9425,14 @@
       <c r="I200">
         <v>1</v>
       </c>
-      <c r="J200">
-        <v>3</v>
+      <c r="J200" t="s">
+        <v>86</v>
       </c>
       <c r="K200" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L200">
-        <v>4</v>
+        <v>1510</v>
       </c>
       <c r="M200">
         <v>36079</v>
@@ -9463,14 +9469,14 @@
       <c r="I201">
         <v>1</v>
       </c>
-      <c r="J201">
-        <v>3</v>
+      <c r="J201" t="s">
+        <v>86</v>
       </c>
       <c r="K201" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L201">
-        <v>4</v>
+        <v>916</v>
       </c>
       <c r="M201">
         <v>36079</v>
@@ -9507,14 +9513,14 @@
       <c r="I202">
         <v>1</v>
       </c>
-      <c r="J202">
-        <v>3</v>
+      <c r="J202" t="s">
+        <v>85</v>
       </c>
       <c r="K202" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L202">
-        <v>4</v>
+        <v>76306</v>
       </c>
       <c r="M202">
         <v>36081</v>
@@ -9551,14 +9557,14 @@
       <c r="I203">
         <v>1</v>
       </c>
-      <c r="J203">
-        <v>3</v>
+      <c r="J203" t="s">
+        <v>85</v>
       </c>
       <c r="K203" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L203">
-        <v>4</v>
+        <v>122387</v>
       </c>
       <c r="M203">
         <v>36081</v>
@@ -9595,14 +9601,14 @@
       <c r="I204">
         <v>1</v>
       </c>
-      <c r="J204">
-        <v>3</v>
+      <c r="J204" t="s">
+        <v>86</v>
       </c>
       <c r="K204" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L204">
-        <v>4</v>
+        <v>19166</v>
       </c>
       <c r="M204">
         <v>36081</v>
@@ -9639,14 +9645,14 @@
       <c r="I205">
         <v>1</v>
       </c>
-      <c r="J205">
-        <v>3</v>
+      <c r="J205" t="s">
+        <v>86</v>
       </c>
       <c r="K205" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L205">
-        <v>4</v>
+        <v>5081</v>
       </c>
       <c r="M205">
         <v>36081</v>
@@ -9683,14 +9689,14 @@
       <c r="I206">
         <v>1</v>
       </c>
-      <c r="J206">
-        <v>3</v>
+      <c r="J206" t="s">
+        <v>86</v>
       </c>
       <c r="K206" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L206">
-        <v>4</v>
+        <v>3983</v>
       </c>
       <c r="M206">
         <v>36081</v>
@@ -9727,14 +9733,14 @@
       <c r="I207">
         <v>1</v>
       </c>
-      <c r="J207">
-        <v>3</v>
+      <c r="J207" t="s">
+        <v>85</v>
       </c>
       <c r="K207" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L207">
-        <v>4</v>
+        <v>6650</v>
       </c>
       <c r="M207">
         <v>36083</v>
@@ -9771,14 +9777,14 @@
       <c r="I208">
         <v>1</v>
       </c>
-      <c r="J208">
-        <v>3</v>
+      <c r="J208" t="s">
+        <v>85</v>
       </c>
       <c r="K208" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L208">
-        <v>4</v>
+        <v>4739</v>
       </c>
       <c r="M208">
         <v>36083</v>
@@ -9815,14 +9821,14 @@
       <c r="I209">
         <v>1</v>
       </c>
-      <c r="J209">
-        <v>3</v>
+      <c r="J209" t="s">
+        <v>86</v>
       </c>
       <c r="K209" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L209">
-        <v>4</v>
+        <v>4560</v>
       </c>
       <c r="M209">
         <v>36083</v>
@@ -9859,14 +9865,14 @@
       <c r="I210">
         <v>1</v>
       </c>
-      <c r="J210">
-        <v>3</v>
+      <c r="J210" t="s">
+        <v>86</v>
       </c>
       <c r="K210" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L210">
-        <v>4</v>
+        <v>2491</v>
       </c>
       <c r="M210">
         <v>36083</v>
@@ -9903,14 +9909,14 @@
       <c r="I211">
         <v>1</v>
       </c>
-      <c r="J211">
-        <v>3</v>
+      <c r="J211" t="s">
+        <v>86</v>
       </c>
       <c r="K211" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L211">
-        <v>4</v>
+        <v>1517</v>
       </c>
       <c r="M211">
         <v>36083</v>
@@ -9947,14 +9953,14 @@
       <c r="I212">
         <v>1</v>
       </c>
-      <c r="J212">
-        <v>3</v>
+      <c r="J212" t="s">
+        <v>85</v>
       </c>
       <c r="K212" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L212">
-        <v>4</v>
+        <v>11073</v>
       </c>
       <c r="M212">
         <v>36087</v>
@@ -9991,14 +9997,14 @@
       <c r="I213">
         <v>1</v>
       </c>
-      <c r="J213">
-        <v>3</v>
+      <c r="J213" t="s">
+        <v>85</v>
       </c>
       <c r="K213" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L213">
-        <v>4</v>
+        <v>16967</v>
       </c>
       <c r="M213">
         <v>36087</v>
@@ -10035,14 +10041,14 @@
       <c r="I214">
         <v>1</v>
       </c>
-      <c r="J214">
-        <v>3</v>
+      <c r="J214" t="s">
+        <v>86</v>
       </c>
       <c r="K214" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L214">
-        <v>4</v>
+        <v>8836</v>
       </c>
       <c r="M214">
         <v>36087</v>
@@ -10079,14 +10085,14 @@
       <c r="I215">
         <v>1</v>
       </c>
-      <c r="J215">
-        <v>3</v>
+      <c r="J215" t="s">
+        <v>86</v>
       </c>
       <c r="K215" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L215">
-        <v>4</v>
+        <v>2992</v>
       </c>
       <c r="M215">
         <v>36087</v>
@@ -10123,14 +10129,14 @@
       <c r="I216">
         <v>1</v>
       </c>
-      <c r="J216">
-        <v>3</v>
+      <c r="J216" t="s">
+        <v>86</v>
       </c>
       <c r="K216" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L216">
-        <v>4</v>
+        <v>2213</v>
       </c>
       <c r="M216">
         <v>36087</v>
@@ -10167,14 +10173,14 @@
       <c r="I217">
         <v>1</v>
       </c>
-      <c r="J217">
-        <v>3</v>
+      <c r="J217" t="s">
+        <v>85</v>
       </c>
       <c r="K217" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L217">
-        <v>4</v>
+        <v>4103</v>
       </c>
       <c r="M217">
         <v>36089</v>
@@ -10211,14 +10217,14 @@
       <c r="I218">
         <v>1</v>
       </c>
-      <c r="J218">
-        <v>3</v>
+      <c r="J218" t="s">
+        <v>85</v>
       </c>
       <c r="K218" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L218">
-        <v>4</v>
+        <v>2866</v>
       </c>
       <c r="M218">
         <v>36089</v>
@@ -10255,14 +10261,14 @@
       <c r="I219">
         <v>1</v>
       </c>
-      <c r="J219">
-        <v>3</v>
+      <c r="J219" t="s">
+        <v>86</v>
       </c>
       <c r="K219" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L219">
-        <v>4</v>
+        <v>3618</v>
       </c>
       <c r="M219">
         <v>36089</v>
@@ -10299,14 +10305,14 @@
       <c r="I220">
         <v>1</v>
       </c>
-      <c r="J220">
-        <v>3</v>
+      <c r="J220" t="s">
+        <v>86</v>
       </c>
       <c r="K220" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L220">
-        <v>4</v>
+        <v>1906</v>
       </c>
       <c r="M220">
         <v>36089</v>
@@ -10343,14 +10349,14 @@
       <c r="I221">
         <v>1</v>
       </c>
-      <c r="J221">
-        <v>3</v>
+      <c r="J221" t="s">
+        <v>86</v>
       </c>
       <c r="K221" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L221">
-        <v>4</v>
+        <v>979</v>
       </c>
       <c r="M221">
         <v>36089</v>
@@ -10387,14 +10393,14 @@
       <c r="I222">
         <v>1</v>
       </c>
-      <c r="J222">
-        <v>3</v>
+      <c r="J222" t="s">
+        <v>85</v>
       </c>
       <c r="K222" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L222">
-        <v>4</v>
+        <v>9113</v>
       </c>
       <c r="M222">
         <v>36091</v>
@@ -10431,14 +10437,14 @@
       <c r="I223">
         <v>1</v>
       </c>
-      <c r="J223">
-        <v>3</v>
+      <c r="J223" t="s">
+        <v>85</v>
       </c>
       <c r="K223" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L223">
-        <v>4</v>
+        <v>7207</v>
       </c>
       <c r="M223">
         <v>36091</v>
@@ -10475,14 +10481,14 @@
       <c r="I224">
         <v>1</v>
       </c>
-      <c r="J224">
-        <v>3</v>
+      <c r="J224" t="s">
+        <v>86</v>
       </c>
       <c r="K224" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L224">
-        <v>4</v>
+        <v>11205</v>
       </c>
       <c r="M224">
         <v>36091</v>
@@ -10519,14 +10525,14 @@
       <c r="I225">
         <v>1</v>
       </c>
-      <c r="J225">
-        <v>3</v>
+      <c r="J225" t="s">
+        <v>86</v>
       </c>
       <c r="K225" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L225">
-        <v>4</v>
+        <v>7967</v>
       </c>
       <c r="M225">
         <v>36091</v>
@@ -10563,14 +10569,14 @@
       <c r="I226">
         <v>1</v>
       </c>
-      <c r="J226">
-        <v>3</v>
+      <c r="J226" t="s">
+        <v>86</v>
       </c>
       <c r="K226" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L226">
-        <v>4</v>
+        <v>4198</v>
       </c>
       <c r="M226">
         <v>36091</v>
@@ -10607,14 +10613,14 @@
       <c r="I227">
         <v>1</v>
       </c>
-      <c r="J227">
-        <v>3</v>
+      <c r="J227" t="s">
+        <v>85</v>
       </c>
       <c r="K227" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L227">
-        <v>4</v>
+        <v>6863</v>
       </c>
       <c r="M227">
         <v>36093</v>
@@ -10651,14 +10657,14 @@
       <c r="I228">
         <v>1</v>
       </c>
-      <c r="J228">
-        <v>3</v>
+      <c r="J228" t="s">
+        <v>85</v>
       </c>
       <c r="K228" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L228">
-        <v>4</v>
+        <v>6147</v>
       </c>
       <c r="M228">
         <v>36093</v>
@@ -10695,14 +10701,14 @@
       <c r="I229">
         <v>1</v>
       </c>
-      <c r="J229">
-        <v>3</v>
+      <c r="J229" t="s">
+        <v>86</v>
       </c>
       <c r="K229" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L229">
-        <v>4</v>
+        <v>4284</v>
       </c>
       <c r="M229">
         <v>36093</v>
@@ -10739,14 +10745,14 @@
       <c r="I230">
         <v>1</v>
       </c>
-      <c r="J230">
-        <v>3</v>
+      <c r="J230" t="s">
+        <v>86</v>
       </c>
       <c r="K230" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L230">
-        <v>4</v>
+        <v>2803</v>
       </c>
       <c r="M230">
         <v>36093</v>
@@ -10783,14 +10789,14 @@
       <c r="I231">
         <v>1</v>
       </c>
-      <c r="J231">
-        <v>3</v>
+      <c r="J231" t="s">
+        <v>86</v>
       </c>
       <c r="K231" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L231">
-        <v>4</v>
+        <v>1870</v>
       </c>
       <c r="M231">
         <v>36093</v>
@@ -10827,14 +10833,14 @@
       <c r="I232">
         <v>1</v>
       </c>
-      <c r="J232">
-        <v>3</v>
+      <c r="J232" t="s">
+        <v>85</v>
       </c>
       <c r="K232" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L232">
-        <v>4</v>
+        <v>1089</v>
       </c>
       <c r="M232">
         <v>36095</v>
@@ -10871,14 +10877,14 @@
       <c r="I233">
         <v>1</v>
       </c>
-      <c r="J233">
-        <v>3</v>
+      <c r="J233" t="s">
+        <v>85</v>
       </c>
       <c r="K233" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L233">
-        <v>4</v>
+        <v>623</v>
       </c>
       <c r="M233">
         <v>36095</v>
@@ -10915,14 +10921,14 @@
       <c r="I234">
         <v>1</v>
       </c>
-      <c r="J234">
-        <v>3</v>
+      <c r="J234" t="s">
+        <v>86</v>
       </c>
       <c r="K234" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L234">
-        <v>4</v>
+        <v>1420</v>
       </c>
       <c r="M234">
         <v>36095</v>
@@ -10959,14 +10965,14 @@
       <c r="I235">
         <v>1</v>
       </c>
-      <c r="J235">
-        <v>3</v>
+      <c r="J235" t="s">
+        <v>86</v>
       </c>
       <c r="K235" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L235">
-        <v>4</v>
+        <v>598</v>
       </c>
       <c r="M235">
         <v>36095</v>
@@ -11003,14 +11009,14 @@
       <c r="I236">
         <v>1</v>
       </c>
-      <c r="J236">
-        <v>3</v>
+      <c r="J236" t="s">
+        <v>86</v>
       </c>
       <c r="K236" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L236">
-        <v>4</v>
+        <v>586</v>
       </c>
       <c r="M236">
         <v>36095</v>
@@ -11047,14 +11053,14 @@
       <c r="I237">
         <v>1</v>
       </c>
-      <c r="J237">
-        <v>3</v>
+      <c r="J237" t="s">
+        <v>85</v>
       </c>
       <c r="K237" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L237">
-        <v>4</v>
+        <v>819</v>
       </c>
       <c r="M237">
         <v>36097</v>
@@ -11091,14 +11097,14 @@
       <c r="I238">
         <v>1</v>
       </c>
-      <c r="J238">
-        <v>3</v>
+      <c r="J238" t="s">
+        <v>85</v>
       </c>
       <c r="K238" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L238">
-        <v>4</v>
+        <v>492</v>
       </c>
       <c r="M238">
         <v>36097</v>
@@ -11135,14 +11141,14 @@
       <c r="I239">
         <v>1</v>
       </c>
-      <c r="J239">
-        <v>3</v>
+      <c r="J239" t="s">
+        <v>86</v>
       </c>
       <c r="K239" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L239">
-        <v>4</v>
+        <v>939</v>
       </c>
       <c r="M239">
         <v>36097</v>
@@ -11179,14 +11185,14 @@
       <c r="I240">
         <v>1</v>
       </c>
-      <c r="J240">
-        <v>3</v>
+      <c r="J240" t="s">
+        <v>86</v>
       </c>
       <c r="K240" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L240">
-        <v>4</v>
+        <v>432</v>
       </c>
       <c r="M240">
         <v>36097</v>
@@ -11223,14 +11229,14 @@
       <c r="I241">
         <v>1</v>
       </c>
-      <c r="J241">
-        <v>3</v>
+      <c r="J241" t="s">
+        <v>86</v>
       </c>
       <c r="K241" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L241">
-        <v>4</v>
+        <v>385</v>
       </c>
       <c r="M241">
         <v>36097</v>
@@ -11267,14 +11273,14 @@
       <c r="I242">
         <v>1</v>
       </c>
-      <c r="J242">
-        <v>3</v>
+      <c r="J242" t="s">
+        <v>85</v>
       </c>
       <c r="K242" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L242">
-        <v>4</v>
+        <v>1165</v>
       </c>
       <c r="M242">
         <v>36099</v>
@@ -11311,14 +11317,14 @@
       <c r="I243">
         <v>1</v>
       </c>
-      <c r="J243">
-        <v>3</v>
+      <c r="J243" t="s">
+        <v>85</v>
       </c>
       <c r="K243" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L243">
-        <v>4</v>
+        <v>1043</v>
       </c>
       <c r="M243">
         <v>36099</v>
@@ -11355,14 +11361,14 @@
       <c r="I244">
         <v>1</v>
       </c>
-      <c r="J244">
-        <v>3</v>
+      <c r="J244" t="s">
+        <v>86</v>
       </c>
       <c r="K244" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L244">
-        <v>4</v>
+        <v>1517</v>
       </c>
       <c r="M244">
         <v>36099</v>
@@ -11399,14 +11405,14 @@
       <c r="I245">
         <v>1</v>
       </c>
-      <c r="J245">
-        <v>3</v>
+      <c r="J245" t="s">
+        <v>86</v>
       </c>
       <c r="K245" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L245">
-        <v>4</v>
+        <v>820</v>
       </c>
       <c r="M245">
         <v>36099</v>
@@ -11443,14 +11449,14 @@
       <c r="I246">
         <v>1</v>
       </c>
-      <c r="J246">
-        <v>3</v>
+      <c r="J246" t="s">
+        <v>86</v>
       </c>
       <c r="K246" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L246">
-        <v>4</v>
+        <v>492</v>
       </c>
       <c r="M246">
         <v>36099</v>
@@ -11487,14 +11493,14 @@
       <c r="I247">
         <v>1</v>
       </c>
-      <c r="J247">
-        <v>3</v>
+      <c r="J247" t="s">
+        <v>85</v>
       </c>
       <c r="K247" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L247">
-        <v>4</v>
+        <v>14341</v>
       </c>
       <c r="M247">
         <v>36085</v>
@@ -11531,14 +11537,14 @@
       <c r="I248">
         <v>1</v>
       </c>
-      <c r="J248">
-        <v>3</v>
+      <c r="J248" t="s">
+        <v>85</v>
       </c>
       <c r="K248" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L248">
-        <v>4</v>
+        <v>16128</v>
       </c>
       <c r="M248">
         <v>36085</v>
@@ -11575,14 +11581,14 @@
       <c r="I249">
         <v>1</v>
       </c>
-      <c r="J249">
-        <v>3</v>
+      <c r="J249" t="s">
+        <v>86</v>
       </c>
       <c r="K249" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L249">
-        <v>4</v>
+        <v>20264</v>
       </c>
       <c r="M249">
         <v>36085</v>
@@ -11619,14 +11625,14 @@
       <c r="I250">
         <v>1</v>
       </c>
-      <c r="J250">
-        <v>3</v>
+      <c r="J250" t="s">
+        <v>86</v>
       </c>
       <c r="K250" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L250">
-        <v>4</v>
+        <v>2503</v>
       </c>
       <c r="M250">
         <v>36085</v>
@@ -11663,14 +11669,14 @@
       <c r="I251">
         <v>1</v>
       </c>
-      <c r="J251">
-        <v>3</v>
+      <c r="J251" t="s">
+        <v>86</v>
       </c>
       <c r="K251" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L251">
-        <v>4</v>
+        <v>1924</v>
       </c>
       <c r="M251">
         <v>36085</v>
@@ -11707,14 +11713,14 @@
       <c r="I252">
         <v>1</v>
       </c>
-      <c r="J252">
-        <v>3</v>
+      <c r="J252" t="s">
+        <v>85</v>
       </c>
       <c r="K252" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L252">
-        <v>4</v>
+        <v>2710</v>
       </c>
       <c r="M252">
         <v>36101</v>
@@ -11751,14 +11757,14 @@
       <c r="I253">
         <v>1</v>
       </c>
-      <c r="J253">
-        <v>3</v>
+      <c r="J253" t="s">
+        <v>85</v>
       </c>
       <c r="K253" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L253">
-        <v>4</v>
+        <v>1971</v>
       </c>
       <c r="M253">
         <v>36101</v>
@@ -11795,14 +11801,14 @@
       <c r="I254">
         <v>1</v>
       </c>
-      <c r="J254">
-        <v>3</v>
+      <c r="J254" t="s">
+        <v>86</v>
       </c>
       <c r="K254" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L254">
-        <v>4</v>
+        <v>5958</v>
       </c>
       <c r="M254">
         <v>36101</v>
@@ -11839,14 +11845,14 @@
       <c r="I255">
         <v>1</v>
       </c>
-      <c r="J255">
-        <v>3</v>
+      <c r="J255" t="s">
+        <v>86</v>
       </c>
       <c r="K255" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L255">
-        <v>4</v>
+        <v>2617</v>
       </c>
       <c r="M255">
         <v>36101</v>
@@ -11883,14 +11889,14 @@
       <c r="I256">
         <v>1</v>
       </c>
-      <c r="J256">
-        <v>3</v>
+      <c r="J256" t="s">
+        <v>86</v>
       </c>
       <c r="K256" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L256">
-        <v>4</v>
+        <v>2262</v>
       </c>
       <c r="M256">
         <v>36101</v>
@@ -11927,14 +11933,14 @@
       <c r="I257">
         <v>1</v>
       </c>
-      <c r="J257">
-        <v>3</v>
+      <c r="J257" t="s">
+        <v>85</v>
       </c>
       <c r="K257" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L257">
-        <v>4</v>
+        <v>41364</v>
       </c>
       <c r="M257">
         <v>36103</v>
@@ -11971,14 +11977,14 @@
       <c r="I258">
         <v>1</v>
       </c>
-      <c r="J258">
-        <v>3</v>
+      <c r="J258" t="s">
+        <v>85</v>
       </c>
       <c r="K258" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L258">
-        <v>4</v>
+        <v>49927</v>
       </c>
       <c r="M258">
         <v>36103</v>
@@ -12015,14 +12021,14 @@
       <c r="I259">
         <v>1</v>
       </c>
-      <c r="J259">
-        <v>3</v>
+      <c r="J259" t="s">
+        <v>86</v>
       </c>
       <c r="K259" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L259">
-        <v>4</v>
+        <v>69380</v>
       </c>
       <c r="M259">
         <v>36103</v>
@@ -12059,14 +12065,14 @@
       <c r="I260">
         <v>1</v>
       </c>
-      <c r="J260">
-        <v>3</v>
+      <c r="J260" t="s">
+        <v>86</v>
       </c>
       <c r="K260" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L260">
-        <v>4</v>
+        <v>17717</v>
       </c>
       <c r="M260">
         <v>36103</v>
@@ -12103,14 +12109,14 @@
       <c r="I261">
         <v>1</v>
       </c>
-      <c r="J261">
-        <v>3</v>
+      <c r="J261" t="s">
+        <v>86</v>
       </c>
       <c r="K261" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L261">
-        <v>4</v>
+        <v>8549</v>
       </c>
       <c r="M261">
         <v>36103</v>
@@ -12147,14 +12153,14 @@
       <c r="I262">
         <v>1</v>
       </c>
-      <c r="J262">
-        <v>3</v>
+      <c r="J262" t="s">
+        <v>85</v>
       </c>
       <c r="K262" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L262">
-        <v>4</v>
+        <v>2672</v>
       </c>
       <c r="M262">
         <v>36105</v>
@@ -12191,14 +12197,14 @@
       <c r="I263">
         <v>1</v>
       </c>
-      <c r="J263">
-        <v>3</v>
+      <c r="J263" t="s">
+        <v>85</v>
       </c>
       <c r="K263" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L263">
-        <v>4</v>
+        <v>2089</v>
       </c>
       <c r="M263">
         <v>36105</v>
@@ -12235,14 +12241,14 @@
       <c r="I264">
         <v>1</v>
       </c>
-      <c r="J264">
-        <v>3</v>
+      <c r="J264" t="s">
+        <v>86</v>
       </c>
       <c r="K264" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L264">
-        <v>4</v>
+        <v>2564</v>
       </c>
       <c r="M264">
         <v>36105</v>
@@ -12279,14 +12285,14 @@
       <c r="I265">
         <v>1</v>
       </c>
-      <c r="J265">
-        <v>3</v>
+      <c r="J265" t="s">
+        <v>86</v>
       </c>
       <c r="K265" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L265">
-        <v>4</v>
+        <v>628</v>
       </c>
       <c r="M265">
         <v>36105</v>
@@ -12323,14 +12329,14 @@
       <c r="I266">
         <v>1</v>
       </c>
-      <c r="J266">
-        <v>3</v>
+      <c r="J266" t="s">
+        <v>86</v>
       </c>
       <c r="K266" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L266">
-        <v>4</v>
+        <v>527</v>
       </c>
       <c r="M266">
         <v>36105</v>
@@ -12367,14 +12373,14 @@
       <c r="I267">
         <v>1</v>
       </c>
-      <c r="J267">
-        <v>3</v>
+      <c r="J267" t="s">
+        <v>85</v>
       </c>
       <c r="K267" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L267">
-        <v>4</v>
+        <v>1826</v>
       </c>
       <c r="M267">
         <v>36107</v>
@@ -12411,14 +12417,14 @@
       <c r="I268">
         <v>1</v>
       </c>
-      <c r="J268">
-        <v>3</v>
+      <c r="J268" t="s">
+        <v>85</v>
       </c>
       <c r="K268" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L268">
-        <v>4</v>
+        <v>1233</v>
       </c>
       <c r="M268">
         <v>36107</v>
@@ -12455,14 +12461,14 @@
       <c r="I269">
         <v>1</v>
       </c>
-      <c r="J269">
-        <v>3</v>
+      <c r="J269" t="s">
+        <v>86</v>
       </c>
       <c r="K269" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L269">
-        <v>4</v>
+        <v>2802</v>
       </c>
       <c r="M269">
         <v>36107</v>
@@ -12499,14 +12505,14 @@
       <c r="I270">
         <v>1</v>
       </c>
-      <c r="J270">
-        <v>3</v>
+      <c r="J270" t="s">
+        <v>86</v>
       </c>
       <c r="K270" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L270">
-        <v>4</v>
+        <v>1467</v>
       </c>
       <c r="M270">
         <v>36107</v>
@@ -12543,14 +12549,14 @@
       <c r="I271">
         <v>1</v>
       </c>
-      <c r="J271">
-        <v>3</v>
+      <c r="J271" t="s">
+        <v>86</v>
       </c>
       <c r="K271" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L271">
-        <v>4</v>
+        <v>1348</v>
       </c>
       <c r="M271">
         <v>36107</v>
@@ -12587,14 +12593,14 @@
       <c r="I272">
         <v>1</v>
       </c>
-      <c r="J272">
-        <v>3</v>
+      <c r="J272" t="s">
+        <v>85</v>
       </c>
       <c r="K272" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L272">
-        <v>4</v>
+        <v>9299</v>
       </c>
       <c r="M272">
         <v>36109</v>
@@ -12631,14 +12637,14 @@
       <c r="I273">
         <v>1</v>
       </c>
-      <c r="J273">
-        <v>3</v>
+      <c r="J273" t="s">
+        <v>85</v>
       </c>
       <c r="K273" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L273">
-        <v>4</v>
+        <v>5626</v>
       </c>
       <c r="M273">
         <v>36109</v>
@@ -12675,14 +12681,14 @@
       <c r="I274">
         <v>1</v>
       </c>
-      <c r="J274">
-        <v>3</v>
+      <c r="J274" t="s">
+        <v>86</v>
       </c>
       <c r="K274" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L274">
-        <v>4</v>
+        <v>1724</v>
       </c>
       <c r="M274">
         <v>36109</v>
@@ -12719,14 +12725,14 @@
       <c r="I275">
         <v>1</v>
       </c>
-      <c r="J275">
-        <v>3</v>
+      <c r="J275" t="s">
+        <v>86</v>
       </c>
       <c r="K275" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L275">
-        <v>4</v>
+        <v>1602</v>
       </c>
       <c r="M275">
         <v>36109</v>
@@ -12763,14 +12769,14 @@
       <c r="I276">
         <v>1</v>
       </c>
-      <c r="J276">
-        <v>3</v>
+      <c r="J276" t="s">
+        <v>86</v>
       </c>
       <c r="K276" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L276">
-        <v>4</v>
+        <v>1245</v>
       </c>
       <c r="M276">
         <v>36109</v>
@@ -12807,14 +12813,14 @@
       <c r="I277">
         <v>1</v>
       </c>
-      <c r="J277">
-        <v>3</v>
+      <c r="J277" t="s">
+        <v>85</v>
       </c>
       <c r="K277" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L277">
-        <v>4</v>
+        <v>11573</v>
       </c>
       <c r="M277">
         <v>36111</v>
@@ -12851,14 +12857,14 @@
       <c r="I278">
         <v>1</v>
       </c>
-      <c r="J278">
-        <v>3</v>
+      <c r="J278" t="s">
+        <v>85</v>
       </c>
       <c r="K278" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L278">
-        <v>4</v>
+        <v>6928</v>
       </c>
       <c r="M278">
         <v>36111</v>
@@ -12895,14 +12901,14 @@
       <c r="I279">
         <v>1</v>
       </c>
-      <c r="J279">
-        <v>3</v>
+      <c r="J279" t="s">
+        <v>86</v>
       </c>
       <c r="K279" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L279">
-        <v>4</v>
+        <v>6043</v>
       </c>
       <c r="M279">
         <v>36111</v>
@@ -12939,14 +12945,14 @@
       <c r="I280">
         <v>1</v>
       </c>
-      <c r="J280">
-        <v>3</v>
+      <c r="J280" t="s">
+        <v>86</v>
       </c>
       <c r="K280" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L280">
-        <v>4</v>
+        <v>2051</v>
       </c>
       <c r="M280">
         <v>36111</v>
@@ -12983,14 +12989,14 @@
       <c r="I281">
         <v>1</v>
       </c>
-      <c r="J281">
-        <v>3</v>
+      <c r="J281" t="s">
+        <v>86</v>
       </c>
       <c r="K281" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L281">
-        <v>4</v>
+        <v>1236</v>
       </c>
       <c r="M281">
         <v>36111</v>
@@ -13027,14 +13033,14 @@
       <c r="I282">
         <v>1</v>
       </c>
-      <c r="J282">
-        <v>3</v>
+      <c r="J282" t="s">
+        <v>85</v>
       </c>
       <c r="K282" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L282">
-        <v>4</v>
+        <v>2638</v>
       </c>
       <c r="M282">
         <v>36113</v>
@@ -13071,14 +13077,14 @@
       <c r="I283">
         <v>1</v>
       </c>
-      <c r="J283">
-        <v>3</v>
+      <c r="J283" t="s">
+        <v>85</v>
       </c>
       <c r="K283" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L283">
-        <v>4</v>
+        <v>1640</v>
       </c>
       <c r="M283">
         <v>36113</v>
@@ -13115,14 +13121,14 @@
       <c r="I284">
         <v>1</v>
       </c>
-      <c r="J284">
-        <v>3</v>
+      <c r="J284" t="s">
+        <v>86</v>
       </c>
       <c r="K284" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L284">
-        <v>4</v>
+        <v>3490</v>
       </c>
       <c r="M284">
         <v>36113</v>
@@ -13159,14 +13165,14 @@
       <c r="I285">
         <v>1</v>
       </c>
-      <c r="J285">
-        <v>3</v>
+      <c r="J285" t="s">
+        <v>86</v>
       </c>
       <c r="K285" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L285">
-        <v>4</v>
+        <v>2593</v>
       </c>
       <c r="M285">
         <v>36113</v>
@@ -13203,14 +13209,14 @@
       <c r="I286">
         <v>1</v>
       </c>
-      <c r="J286">
-        <v>3</v>
+      <c r="J286" t="s">
+        <v>86</v>
       </c>
       <c r="K286" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L286">
-        <v>4</v>
+        <v>1063</v>
       </c>
       <c r="M286">
         <v>36113</v>
@@ -13247,14 +13253,14 @@
       <c r="I287">
         <v>1</v>
       </c>
-      <c r="J287">
-        <v>3</v>
+      <c r="J287" t="s">
+        <v>85</v>
       </c>
       <c r="K287" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L287">
-        <v>4</v>
+        <v>2088</v>
       </c>
       <c r="M287">
         <v>36115</v>
@@ -13291,14 +13297,14 @@
       <c r="I288">
         <v>1</v>
       </c>
-      <c r="J288">
-        <v>3</v>
+      <c r="J288" t="s">
+        <v>85</v>
       </c>
       <c r="K288" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L288">
-        <v>4</v>
+        <v>1168</v>
       </c>
       <c r="M288">
         <v>36115</v>
@@ -13335,14 +13341,14 @@
       <c r="I289">
         <v>1</v>
       </c>
-      <c r="J289">
-        <v>3</v>
+      <c r="J289" t="s">
+        <v>86</v>
       </c>
       <c r="K289" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L289">
-        <v>4</v>
+        <v>2338</v>
       </c>
       <c r="M289">
         <v>36115</v>
@@ -13379,14 +13385,14 @@
       <c r="I290">
         <v>1</v>
       </c>
-      <c r="J290">
-        <v>3</v>
+      <c r="J290" t="s">
+        <v>86</v>
       </c>
       <c r="K290" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L290">
-        <v>4</v>
+        <v>1742</v>
       </c>
       <c r="M290">
         <v>36115</v>
@@ -13423,14 +13429,14 @@
       <c r="I291">
         <v>1</v>
       </c>
-      <c r="J291">
-        <v>3</v>
+      <c r="J291" t="s">
+        <v>86</v>
       </c>
       <c r="K291" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L291">
-        <v>4</v>
+        <v>975</v>
       </c>
       <c r="M291">
         <v>36115</v>
@@ -13467,14 +13473,14 @@
       <c r="I292">
         <v>1</v>
       </c>
-      <c r="J292">
-        <v>3</v>
+      <c r="J292" t="s">
+        <v>85</v>
       </c>
       <c r="K292" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L292">
-        <v>4</v>
+        <v>2320</v>
       </c>
       <c r="M292">
         <v>36117</v>
@@ -13511,14 +13517,14 @@
       <c r="I293">
         <v>1</v>
       </c>
-      <c r="J293">
-        <v>3</v>
+      <c r="J293" t="s">
+        <v>85</v>
       </c>
       <c r="K293" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L293">
-        <v>4</v>
+        <v>1860</v>
       </c>
       <c r="M293">
         <v>36117</v>
@@ -13555,14 +13561,14 @@
       <c r="I294">
         <v>1</v>
       </c>
-      <c r="J294">
-        <v>3</v>
+      <c r="J294" t="s">
+        <v>86</v>
       </c>
       <c r="K294" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L294">
-        <v>4</v>
+        <v>4286</v>
       </c>
       <c r="M294">
         <v>36117</v>
@@ -13599,14 +13605,14 @@
       <c r="I295">
         <v>1</v>
       </c>
-      <c r="J295">
-        <v>3</v>
+      <c r="J295" t="s">
+        <v>86</v>
       </c>
       <c r="K295" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L295">
-        <v>4</v>
+        <v>1925</v>
       </c>
       <c r="M295">
         <v>36117</v>
@@ -13643,14 +13649,14 @@
       <c r="I296">
         <v>1</v>
       </c>
-      <c r="J296">
-        <v>3</v>
+      <c r="J296" t="s">
+        <v>86</v>
       </c>
       <c r="K296" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L296">
-        <v>4</v>
+        <v>1549</v>
       </c>
       <c r="M296">
         <v>36117</v>
@@ -13687,14 +13693,14 @@
       <c r="I297">
         <v>1</v>
       </c>
-      <c r="J297">
-        <v>3</v>
+      <c r="J297" t="s">
+        <v>85</v>
       </c>
       <c r="K297" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L297">
-        <v>4</v>
+        <v>33727</v>
       </c>
       <c r="M297">
         <v>36119</v>
@@ -13731,14 +13737,14 @@
       <c r="I298">
         <v>1</v>
       </c>
-      <c r="J298">
-        <v>3</v>
+      <c r="J298" t="s">
+        <v>85</v>
       </c>
       <c r="K298" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L298">
-        <v>4</v>
+        <v>69629</v>
       </c>
       <c r="M298">
         <v>36119</v>
@@ -13775,14 +13781,14 @@
       <c r="I299">
         <v>1</v>
       </c>
-      <c r="J299">
-        <v>3</v>
+      <c r="J299" t="s">
+        <v>86</v>
       </c>
       <c r="K299" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L299">
-        <v>4</v>
+        <v>22959</v>
       </c>
       <c r="M299">
         <v>36119</v>
@@ -13819,14 +13825,14 @@
       <c r="I300">
         <v>1</v>
       </c>
-      <c r="J300">
-        <v>3</v>
+      <c r="J300" t="s">
+        <v>86</v>
       </c>
       <c r="K300" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L300">
-        <v>4</v>
+        <v>13218</v>
       </c>
       <c r="M300">
         <v>36119</v>
@@ -13863,14 +13869,14 @@
       <c r="I301">
         <v>1</v>
       </c>
-      <c r="J301">
-        <v>3</v>
+      <c r="J301" t="s">
+        <v>86</v>
       </c>
       <c r="K301" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L301">
-        <v>4</v>
+        <v>4648</v>
       </c>
       <c r="M301">
         <v>36119</v>
@@ -13907,14 +13913,14 @@
       <c r="I302">
         <v>1</v>
       </c>
-      <c r="J302">
-        <v>3</v>
+      <c r="J302" t="s">
+        <v>85</v>
       </c>
       <c r="K302" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L302">
-        <v>4</v>
+        <v>910</v>
       </c>
       <c r="M302">
         <v>36121</v>
@@ -13951,14 +13957,14 @@
       <c r="I303">
         <v>1</v>
       </c>
-      <c r="J303">
-        <v>3</v>
+      <c r="J303" t="s">
+        <v>85</v>
       </c>
       <c r="K303" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L303">
-        <v>4</v>
+        <v>595</v>
       </c>
       <c r="M303">
         <v>36121</v>
@@ -13995,14 +14001,14 @@
       <c r="I304">
         <v>1</v>
       </c>
-      <c r="J304">
-        <v>3</v>
+      <c r="J304" t="s">
+        <v>86</v>
       </c>
       <c r="K304" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L304">
-        <v>4</v>
+        <v>2669</v>
       </c>
       <c r="M304">
         <v>36121</v>
@@ -14039,14 +14045,14 @@
       <c r="I305">
         <v>1</v>
       </c>
-      <c r="J305">
-        <v>3</v>
+      <c r="J305" t="s">
+        <v>86</v>
       </c>
       <c r="K305" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L305">
-        <v>4</v>
+        <v>704</v>
       </c>
       <c r="M305">
         <v>36121</v>
@@ -14083,14 +14089,14 @@
       <c r="I306">
         <v>1</v>
       </c>
-      <c r="J306">
-        <v>3</v>
+      <c r="J306" t="s">
+        <v>86</v>
       </c>
       <c r="K306" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L306">
-        <v>4</v>
+        <v>713</v>
       </c>
       <c r="M306">
         <v>36121</v>
@@ -14127,14 +14133,14 @@
       <c r="I307">
         <v>1</v>
       </c>
-      <c r="J307">
-        <v>3</v>
+      <c r="J307" t="s">
+        <v>85</v>
       </c>
       <c r="K307" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L307">
-        <v>4</v>
+        <v>670</v>
       </c>
       <c r="M307">
         <v>36123</v>
@@ -14171,14 +14177,14 @@
       <c r="I308">
         <v>1</v>
       </c>
-      <c r="J308">
-        <v>3</v>
+      <c r="J308" t="s">
+        <v>85</v>
       </c>
       <c r="K308" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L308">
-        <v>4</v>
+        <v>553</v>
       </c>
       <c r="M308">
         <v>36123</v>
@@ -14215,14 +14221,14 @@
       <c r="I309">
         <v>1</v>
       </c>
-      <c r="J309">
-        <v>3</v>
+      <c r="J309" t="s">
+        <v>86</v>
       </c>
       <c r="K309" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L309">
-        <v>4</v>
+        <v>1297</v>
       </c>
       <c r="M309">
         <v>36123</v>
@@ -14259,14 +14265,14 @@
       <c r="I310">
         <v>1</v>
       </c>
-      <c r="J310">
-        <v>3</v>
+      <c r="J310" t="s">
+        <v>86</v>
       </c>
       <c r="K310" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L310">
-        <v>4</v>
+        <v>800</v>
       </c>
       <c r="M310">
         <v>36123</v>
@@ -14303,14 +14309,14 @@
       <c r="I311">
         <v>1</v>
       </c>
-      <c r="J311">
-        <v>3</v>
+      <c r="J311" t="s">
+        <v>86</v>
       </c>
       <c r="K311" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="L311">
-        <v>4</v>
+        <v>370</v>
       </c>
       <c r="M311">
         <v>36123</v>
